--- a/experiment_results/worst_case/ExamDB/3wise/0.8_worst_case.xlsx
+++ b/experiment_results/worst_case/ExamDB/3wise/0.8_worst_case.xlsx
@@ -597,7 +597,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -629,7 +629,7 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -661,7 +661,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -693,7 +693,7 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -725,7 +725,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -757,7 +757,7 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -789,7 +789,7 @@
         <v>10</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>11</v>
@@ -821,7 +821,7 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -853,7 +853,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -885,7 +885,7 @@
         <v>15</v>
       </c>
       <c r="E11">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G11">
         <v>16</v>
@@ -917,7 +917,7 @@
         <v>6</v>
       </c>
       <c r="E12">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G12">
         <v>8</v>
@@ -949,7 +949,7 @@
         <v>4</v>
       </c>
       <c r="E13">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -981,7 +981,7 @@
         <v>4</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -1013,7 +1013,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1045,7 +1045,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1077,7 +1077,7 @@
         <v>9</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G17">
         <v>10</v>
@@ -1109,7 +1109,7 @@
         <v>3</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -1141,7 +1141,7 @@
         <v>3</v>
       </c>
       <c r="E19">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G19">
         <v>3</v>
@@ -1164,16 +1164,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -1237,7 +1237,7 @@
         <v>9</v>
       </c>
       <c r="E22">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G22">
         <v>9</v>
@@ -1260,16 +1260,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="D23">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E23">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -1301,7 +1301,7 @@
         <v>10</v>
       </c>
       <c r="E24">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G24">
         <v>10</v>
@@ -1333,7 +1333,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -1365,7 +1365,7 @@
         <v>15</v>
       </c>
       <c r="E26">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G26">
         <v>16</v>
@@ -1397,7 +1397,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -1429,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1461,7 +1461,7 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -1493,7 +1493,7 @@
         <v>16</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G30">
         <v>15</v>
@@ -1525,7 +1525,7 @@
         <v>13</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>13</v>
@@ -1557,7 +1557,7 @@
         <v>3</v>
       </c>
       <c r="E32">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -1589,7 +1589,7 @@
         <v>9</v>
       </c>
       <c r="E33">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G33">
         <v>9</v>
@@ -1621,7 +1621,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -1653,7 +1653,7 @@
         <v>7</v>
       </c>
       <c r="E35">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G35">
         <v>7</v>
@@ -1685,7 +1685,7 @@
         <v>4</v>
       </c>
       <c r="E36">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -1717,7 +1717,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -1781,7 +1781,7 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -1813,7 +1813,7 @@
         <v>5</v>
       </c>
       <c r="E40">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G40">
         <v>5</v>
@@ -1845,7 +1845,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -1877,7 +1877,7 @@
         <v>7</v>
       </c>
       <c r="E42">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G42">
         <v>7</v>
@@ -1909,7 +1909,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -1941,7 +1941,7 @@
         <v>10</v>
       </c>
       <c r="E44">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G44">
         <v>10</v>
@@ -1973,7 +1973,7 @@
         <v>6</v>
       </c>
       <c r="E45">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G45">
         <v>6</v>
@@ -2005,7 +2005,7 @@
         <v>7</v>
       </c>
       <c r="E46">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>7</v>
@@ -2037,7 +2037,7 @@
         <v>5</v>
       </c>
       <c r="E47">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G47">
         <v>6</v>
@@ -2069,7 +2069,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -2101,7 +2101,7 @@
         <v>8</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>8</v>
@@ -2133,7 +2133,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -2165,7 +2165,7 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -2197,7 +2197,7 @@
         <v>10</v>
       </c>
       <c r="E52">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G52">
         <v>10</v>
@@ -2229,7 +2229,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -2297,16 +2297,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -2338,7 +2338,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -2361,16 +2361,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -2402,7 +2402,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -2434,7 +2434,7 @@
         <v>6</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -2466,7 +2466,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -2498,7 +2498,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -2530,7 +2530,7 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -2562,7 +2562,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -2594,7 +2594,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -2626,7 +2626,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -2658,7 +2658,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -2690,7 +2690,7 @@
         <v>3</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -2722,7 +2722,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -2754,7 +2754,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -2818,7 +2818,7 @@
         <v>4</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -2850,7 +2850,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2873,16 +2873,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2946,7 +2946,7 @@
         <v>9</v>
       </c>
       <c r="E22">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G22">
         <v>9</v>
@@ -2969,16 +2969,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="C23">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D23">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="E23">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -3010,7 +3010,7 @@
         <v>3</v>
       </c>
       <c r="E24">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -3042,7 +3042,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -3074,7 +3074,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -3106,7 +3106,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -3138,7 +3138,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -3170,7 +3170,7 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -3202,7 +3202,7 @@
         <v>15</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G30">
         <v>14</v>
@@ -3234,7 +3234,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -3266,7 +3266,7 @@
         <v>4</v>
       </c>
       <c r="E32">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -3298,7 +3298,7 @@
         <v>9</v>
       </c>
       <c r="E33">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G33">
         <v>9</v>
@@ -3330,7 +3330,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -3362,7 +3362,7 @@
         <v>7</v>
       </c>
       <c r="E35">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G35">
         <v>7</v>
@@ -3394,7 +3394,7 @@
         <v>4</v>
       </c>
       <c r="E36">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -3426,7 +3426,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3458,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -3490,7 +3490,7 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -3522,7 +3522,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -3554,7 +3554,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -3586,7 +3586,7 @@
         <v>7</v>
       </c>
       <c r="E42">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G42">
         <v>7</v>
@@ -3618,7 +3618,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -3650,7 +3650,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -3682,7 +3682,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -3714,7 +3714,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -3746,7 +3746,7 @@
         <v>2</v>
       </c>
       <c r="E47">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -3778,7 +3778,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -3810,7 +3810,7 @@
         <v>3</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -3842,7 +3842,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -3874,7 +3874,7 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -3906,7 +3906,7 @@
         <v>10</v>
       </c>
       <c r="E52">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G52">
         <v>10</v>
@@ -3938,7 +3938,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -4015,7 +4015,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -4047,7 +4047,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -4070,16 +4070,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -4111,7 +4111,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -4143,7 +4143,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -4175,7 +4175,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -4207,7 +4207,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -4239,7 +4239,7 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -4271,7 +4271,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -4303,7 +4303,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -4335,7 +4335,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -4367,7 +4367,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -4399,7 +4399,7 @@
         <v>3</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -4431,7 +4431,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -4463,7 +4463,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -4495,7 +4495,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -4527,7 +4527,7 @@
         <v>4</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -4559,7 +4559,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -4582,16 +4582,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -4655,7 +4655,7 @@
         <v>9</v>
       </c>
       <c r="E22">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G22">
         <v>9</v>
@@ -4678,16 +4678,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="C23">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="E23">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -4719,7 +4719,7 @@
         <v>3</v>
       </c>
       <c r="E24">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -4751,7 +4751,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -4783,7 +4783,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -4815,7 +4815,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -4847,7 +4847,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -4879,7 +4879,7 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -4911,7 +4911,7 @@
         <v>15</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G30">
         <v>14</v>
@@ -4943,7 +4943,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -4975,7 +4975,7 @@
         <v>4</v>
       </c>
       <c r="E32">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -5007,7 +5007,7 @@
         <v>9</v>
       </c>
       <c r="E33">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G33">
         <v>9</v>
@@ -5039,7 +5039,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -5071,7 +5071,7 @@
         <v>7</v>
       </c>
       <c r="E35">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G35">
         <v>7</v>
@@ -5103,7 +5103,7 @@
         <v>4</v>
       </c>
       <c r="E36">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -5135,7 +5135,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -5167,7 +5167,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -5199,7 +5199,7 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -5231,7 +5231,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -5263,7 +5263,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -5295,7 +5295,7 @@
         <v>7</v>
       </c>
       <c r="E42">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G42">
         <v>7</v>
@@ -5327,7 +5327,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -5359,7 +5359,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -5391,7 +5391,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -5423,7 +5423,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -5455,7 +5455,7 @@
         <v>2</v>
       </c>
       <c r="E47">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -5487,7 +5487,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -5519,7 +5519,7 @@
         <v>3</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -5551,7 +5551,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -5583,7 +5583,7 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -5615,7 +5615,7 @@
         <v>10</v>
       </c>
       <c r="E52">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G52">
         <v>10</v>
@@ -5647,7 +5647,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5724,7 +5724,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -5756,7 +5756,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -5779,16 +5779,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -5820,7 +5820,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -5852,7 +5852,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -5884,7 +5884,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -5916,7 +5916,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -5948,7 +5948,7 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -5980,7 +5980,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -6012,7 +6012,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -6044,7 +6044,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -6076,7 +6076,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -6108,7 +6108,7 @@
         <v>3</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -6140,7 +6140,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -6172,7 +6172,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -6204,7 +6204,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -6236,7 +6236,7 @@
         <v>4</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -6268,7 +6268,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -6291,16 +6291,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -6364,7 +6364,7 @@
         <v>9</v>
       </c>
       <c r="E22">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G22">
         <v>9</v>
@@ -6387,16 +6387,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="C23">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="E23">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -6428,7 +6428,7 @@
         <v>3</v>
       </c>
       <c r="E24">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -6460,7 +6460,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -6492,7 +6492,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -6524,7 +6524,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -6556,7 +6556,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -6588,7 +6588,7 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -6620,7 +6620,7 @@
         <v>15</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G30">
         <v>14</v>
@@ -6652,7 +6652,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -6684,7 +6684,7 @@
         <v>4</v>
       </c>
       <c r="E32">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -6716,7 +6716,7 @@
         <v>9</v>
       </c>
       <c r="E33">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G33">
         <v>9</v>
@@ -6748,7 +6748,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -6780,7 +6780,7 @@
         <v>7</v>
       </c>
       <c r="E35">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G35">
         <v>7</v>
@@ -6812,7 +6812,7 @@
         <v>4</v>
       </c>
       <c r="E36">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -6844,7 +6844,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -6876,7 +6876,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -6908,7 +6908,7 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -6940,7 +6940,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -6972,7 +6972,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -7004,7 +7004,7 @@
         <v>7</v>
       </c>
       <c r="E42">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G42">
         <v>7</v>
@@ -7036,7 +7036,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -7068,7 +7068,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -7100,7 +7100,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -7132,7 +7132,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -7164,7 +7164,7 @@
         <v>2</v>
       </c>
       <c r="E47">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -7196,7 +7196,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -7228,7 +7228,7 @@
         <v>3</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -7260,7 +7260,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -7292,7 +7292,7 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -7324,7 +7324,7 @@
         <v>10</v>
       </c>
       <c r="E52">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G52">
         <v>10</v>
@@ -7356,7 +7356,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -7433,7 +7433,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -7465,7 +7465,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -7497,7 +7497,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -7529,7 +7529,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -7561,7 +7561,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -7593,7 +7593,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -7625,7 +7625,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -7657,7 +7657,7 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -7689,7 +7689,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -7721,7 +7721,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -7753,7 +7753,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -7785,7 +7785,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -7817,7 +7817,7 @@
         <v>3</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -7849,7 +7849,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -7881,7 +7881,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -7913,7 +7913,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -7945,7 +7945,7 @@
         <v>4</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -7977,7 +7977,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -8000,16 +8000,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -8073,7 +8073,7 @@
         <v>9</v>
       </c>
       <c r="E22">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G22">
         <v>9</v>
@@ -8096,16 +8096,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="C23">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="D23">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E23">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -8137,7 +8137,7 @@
         <v>3</v>
       </c>
       <c r="E24">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -8169,7 +8169,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -8201,7 +8201,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -8233,7 +8233,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -8265,7 +8265,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -8297,7 +8297,7 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -8329,7 +8329,7 @@
         <v>15</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G30">
         <v>14</v>
@@ -8361,7 +8361,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -8393,7 +8393,7 @@
         <v>4</v>
       </c>
       <c r="E32">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -8425,7 +8425,7 @@
         <v>9</v>
       </c>
       <c r="E33">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G33">
         <v>9</v>
@@ -8457,7 +8457,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -8489,7 +8489,7 @@
         <v>7</v>
       </c>
       <c r="E35">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G35">
         <v>7</v>
@@ -8521,7 +8521,7 @@
         <v>4</v>
       </c>
       <c r="E36">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -8553,7 +8553,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -8585,7 +8585,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -8617,7 +8617,7 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -8649,7 +8649,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -8681,7 +8681,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -8713,7 +8713,7 @@
         <v>7</v>
       </c>
       <c r="E42">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G42">
         <v>7</v>
@@ -8745,7 +8745,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -8777,7 +8777,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -8809,7 +8809,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -8841,7 +8841,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -8873,7 +8873,7 @@
         <v>2</v>
       </c>
       <c r="E47">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -8905,7 +8905,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -8937,7 +8937,7 @@
         <v>3</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -8969,7 +8969,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -9001,7 +9001,7 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -9033,7 +9033,7 @@
         <v>10</v>
       </c>
       <c r="E52">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G52">
         <v>10</v>
@@ -9065,7 +9065,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -9142,7 +9142,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -9174,7 +9174,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -9206,7 +9206,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -9238,7 +9238,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -9270,7 +9270,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -9302,7 +9302,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -9334,7 +9334,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -9366,7 +9366,7 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -9398,7 +9398,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -9430,7 +9430,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -9462,7 +9462,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -9494,7 +9494,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -9526,7 +9526,7 @@
         <v>3</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -9558,7 +9558,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -9590,7 +9590,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -9622,7 +9622,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -9654,7 +9654,7 @@
         <v>4</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -9686,7 +9686,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -9709,16 +9709,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -9782,7 +9782,7 @@
         <v>9</v>
       </c>
       <c r="E22">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G22">
         <v>9</v>
@@ -9805,16 +9805,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -9846,7 +9846,7 @@
         <v>3</v>
       </c>
       <c r="E24">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -9878,7 +9878,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -9910,7 +9910,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -9942,7 +9942,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -9974,7 +9974,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -10006,7 +10006,7 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -10038,7 +10038,7 @@
         <v>15</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G30">
         <v>14</v>
@@ -10070,7 +10070,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -10102,7 +10102,7 @@
         <v>4</v>
       </c>
       <c r="E32">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -10134,7 +10134,7 @@
         <v>9</v>
       </c>
       <c r="E33">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G33">
         <v>9</v>
@@ -10166,7 +10166,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -10198,7 +10198,7 @@
         <v>7</v>
       </c>
       <c r="E35">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G35">
         <v>7</v>
@@ -10230,7 +10230,7 @@
         <v>4</v>
       </c>
       <c r="E36">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -10262,7 +10262,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -10294,7 +10294,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -10326,7 +10326,7 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -10358,7 +10358,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -10390,7 +10390,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -10422,7 +10422,7 @@
         <v>7</v>
       </c>
       <c r="E42">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G42">
         <v>7</v>
@@ -10454,7 +10454,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -10486,7 +10486,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -10518,7 +10518,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -10550,7 +10550,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -10582,7 +10582,7 @@
         <v>2</v>
       </c>
       <c r="E47">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -10614,7 +10614,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -10646,7 +10646,7 @@
         <v>3</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -10678,7 +10678,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -10710,7 +10710,7 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -10742,7 +10742,7 @@
         <v>10</v>
       </c>
       <c r="E52">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G52">
         <v>10</v>
@@ -10774,7 +10774,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -10851,7 +10851,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -10883,7 +10883,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -10915,7 +10915,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -10947,7 +10947,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -10970,16 +10970,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>16</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>40</v>
@@ -11011,7 +11011,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -11043,7 +11043,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -11075,7 +11075,7 @@
         <v>9</v>
       </c>
       <c r="E9">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G9">
         <v>9</v>
@@ -11107,7 +11107,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -11139,7 +11139,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -11171,7 +11171,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -11203,7 +11203,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -11235,7 +11235,7 @@
         <v>3</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -11267,7 +11267,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -11299,7 +11299,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -11331,7 +11331,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -11363,7 +11363,7 @@
         <v>4</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>4</v>
@@ -11395,7 +11395,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -11427,7 +11427,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -11491,7 +11491,7 @@
         <v>9</v>
       </c>
       <c r="E22">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G22">
         <v>9</v>
@@ -11514,16 +11514,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -11555,7 +11555,7 @@
         <v>3</v>
       </c>
       <c r="E24">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -11587,7 +11587,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -11619,7 +11619,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -11651,7 +11651,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -11683,7 +11683,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -11715,7 +11715,7 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -11747,7 +11747,7 @@
         <v>15</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G30">
         <v>15</v>
@@ -11779,7 +11779,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -11811,7 +11811,7 @@
         <v>4</v>
       </c>
       <c r="E32">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G32">
         <v>4</v>
@@ -11843,7 +11843,7 @@
         <v>9</v>
       </c>
       <c r="E33">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G33">
         <v>9</v>
@@ -11875,7 +11875,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -11907,7 +11907,7 @@
         <v>7</v>
       </c>
       <c r="E35">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G35">
         <v>7</v>
@@ -11939,7 +11939,7 @@
         <v>4</v>
       </c>
       <c r="E36">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -11971,7 +11971,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -12003,7 +12003,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -12035,7 +12035,7 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -12067,7 +12067,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -12099,7 +12099,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -12131,7 +12131,7 @@
         <v>7</v>
       </c>
       <c r="E42">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G42">
         <v>7</v>
@@ -12163,7 +12163,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -12195,7 +12195,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -12227,7 +12227,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -12259,7 +12259,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -12291,7 +12291,7 @@
         <v>2</v>
       </c>
       <c r="E47">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -12323,7 +12323,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -12355,7 +12355,7 @@
         <v>3</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -12387,7 +12387,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -12419,7 +12419,7 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -12451,7 +12451,7 @@
         <v>10</v>
       </c>
       <c r="E52">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G52">
         <v>10</v>
@@ -12483,7 +12483,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -12560,7 +12560,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -12592,7 +12592,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -12624,7 +12624,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -12656,7 +12656,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -12688,7 +12688,7 @@
         <v>6</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -12720,7 +12720,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -12752,7 +12752,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -12784,7 +12784,7 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -12816,7 +12816,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -12848,7 +12848,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -12880,7 +12880,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -12912,7 +12912,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -12944,7 +12944,7 @@
         <v>3</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -12976,7 +12976,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -13008,7 +13008,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -13040,7 +13040,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -13072,7 +13072,7 @@
         <v>4</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -13104,7 +13104,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -13127,16 +13127,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -13200,7 +13200,7 @@
         <v>9</v>
       </c>
       <c r="E22">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G22">
         <v>9</v>
@@ -13223,16 +13223,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -13264,7 +13264,7 @@
         <v>3</v>
       </c>
       <c r="E24">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -13296,7 +13296,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -13328,7 +13328,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -13360,7 +13360,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -13392,7 +13392,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -13424,7 +13424,7 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -13456,7 +13456,7 @@
         <v>15</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G30">
         <v>14</v>
@@ -13488,7 +13488,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -13520,7 +13520,7 @@
         <v>4</v>
       </c>
       <c r="E32">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -13552,7 +13552,7 @@
         <v>9</v>
       </c>
       <c r="E33">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G33">
         <v>9</v>
@@ -13584,7 +13584,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -13616,7 +13616,7 @@
         <v>7</v>
       </c>
       <c r="E35">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G35">
         <v>7</v>
@@ -13648,7 +13648,7 @@
         <v>4</v>
       </c>
       <c r="E36">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -13680,7 +13680,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -13712,7 +13712,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -13744,7 +13744,7 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -13776,7 +13776,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -13808,7 +13808,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -13840,7 +13840,7 @@
         <v>7</v>
       </c>
       <c r="E42">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G42">
         <v>7</v>
@@ -13872,7 +13872,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -13904,7 +13904,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -13936,7 +13936,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -13968,7 +13968,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -14000,7 +14000,7 @@
         <v>2</v>
       </c>
       <c r="E47">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -14032,7 +14032,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -14064,7 +14064,7 @@
         <v>3</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -14096,7 +14096,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -14128,7 +14128,7 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -14160,7 +14160,7 @@
         <v>10</v>
       </c>
       <c r="E52">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G52">
         <v>10</v>
@@ -14192,7 +14192,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -14269,7 +14269,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -14301,7 +14301,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -14333,7 +14333,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -14365,7 +14365,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -14388,16 +14388,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6">
         <v>16</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>40</v>
@@ -14429,7 +14429,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -14461,7 +14461,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -14493,7 +14493,7 @@
         <v>9</v>
       </c>
       <c r="E9">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G9">
         <v>9</v>
@@ -14525,7 +14525,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -14557,7 +14557,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -14589,7 +14589,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -14621,7 +14621,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -14653,7 +14653,7 @@
         <v>3</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -14685,7 +14685,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -14717,7 +14717,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -14749,7 +14749,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -14781,7 +14781,7 @@
         <v>4</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>4</v>
@@ -14813,7 +14813,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -14845,7 +14845,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -14909,7 +14909,7 @@
         <v>9</v>
       </c>
       <c r="E22">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G22">
         <v>9</v>
@@ -14932,16 +14932,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -14973,7 +14973,7 @@
         <v>3</v>
       </c>
       <c r="E24">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -15005,7 +15005,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -15037,7 +15037,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -15069,7 +15069,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -15101,7 +15101,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -15133,7 +15133,7 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -15165,7 +15165,7 @@
         <v>15</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G30">
         <v>15</v>
@@ -15197,7 +15197,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -15229,7 +15229,7 @@
         <v>4</v>
       </c>
       <c r="E32">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G32">
         <v>4</v>
@@ -15261,7 +15261,7 @@
         <v>9</v>
       </c>
       <c r="E33">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G33">
         <v>9</v>
@@ -15293,7 +15293,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -15325,7 +15325,7 @@
         <v>7</v>
       </c>
       <c r="E35">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G35">
         <v>7</v>
@@ -15357,7 +15357,7 @@
         <v>4</v>
       </c>
       <c r="E36">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -15389,7 +15389,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -15421,7 +15421,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -15453,7 +15453,7 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -15485,7 +15485,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -15517,7 +15517,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -15549,7 +15549,7 @@
         <v>7</v>
       </c>
       <c r="E42">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G42">
         <v>7</v>
@@ -15581,7 +15581,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -15613,7 +15613,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -15645,7 +15645,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -15677,7 +15677,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -15709,7 +15709,7 @@
         <v>2</v>
       </c>
       <c r="E47">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -15741,7 +15741,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -15773,7 +15773,7 @@
         <v>3</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -15805,7 +15805,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -15837,7 +15837,7 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -15869,7 +15869,7 @@
         <v>10</v>
       </c>
       <c r="E52">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G52">
         <v>10</v>
@@ -15901,7 +15901,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -15969,16 +15969,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -16010,7 +16010,7 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -16033,16 +16033,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -16074,7 +16074,7 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -16106,7 +16106,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -16138,7 +16138,7 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -16170,7 +16170,7 @@
         <v>10</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>11</v>
@@ -16202,7 +16202,7 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -16234,7 +16234,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -16266,7 +16266,7 @@
         <v>15</v>
       </c>
       <c r="E11">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G11">
         <v>16</v>
@@ -16298,7 +16298,7 @@
         <v>6</v>
       </c>
       <c r="E12">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G12">
         <v>8</v>
@@ -16330,7 +16330,7 @@
         <v>4</v>
       </c>
       <c r="E13">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -16362,7 +16362,7 @@
         <v>4</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -16394,7 +16394,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -16426,7 +16426,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -16458,7 +16458,7 @@
         <v>9</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G17">
         <v>10</v>
@@ -16490,7 +16490,7 @@
         <v>3</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -16522,7 +16522,7 @@
         <v>3</v>
       </c>
       <c r="E19">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G19">
         <v>3</v>
@@ -16545,16 +16545,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -16618,7 +16618,7 @@
         <v>9</v>
       </c>
       <c r="E22">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G22">
         <v>9</v>
@@ -16641,16 +16641,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="C23">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D23">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="E23">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -16682,7 +16682,7 @@
         <v>10</v>
       </c>
       <c r="E24">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G24">
         <v>10</v>
@@ -16714,7 +16714,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -16746,7 +16746,7 @@
         <v>15</v>
       </c>
       <c r="E26">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G26">
         <v>16</v>
@@ -16778,7 +16778,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -16810,7 +16810,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -16842,7 +16842,7 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -16874,7 +16874,7 @@
         <v>16</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G30">
         <v>15</v>
@@ -16906,7 +16906,7 @@
         <v>13</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>13</v>
@@ -16938,7 +16938,7 @@
         <v>3</v>
       </c>
       <c r="E32">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -16970,7 +16970,7 @@
         <v>9</v>
       </c>
       <c r="E33">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G33">
         <v>9</v>
@@ -17002,7 +17002,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -17034,7 +17034,7 @@
         <v>7</v>
       </c>
       <c r="E35">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G35">
         <v>7</v>
@@ -17066,7 +17066,7 @@
         <v>4</v>
       </c>
       <c r="E36">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -17098,7 +17098,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -17130,7 +17130,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -17162,7 +17162,7 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -17194,7 +17194,7 @@
         <v>5</v>
       </c>
       <c r="E40">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G40">
         <v>5</v>
@@ -17226,7 +17226,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -17258,7 +17258,7 @@
         <v>7</v>
       </c>
       <c r="E42">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G42">
         <v>7</v>
@@ -17290,7 +17290,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -17322,7 +17322,7 @@
         <v>10</v>
       </c>
       <c r="E44">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G44">
         <v>10</v>
@@ -17354,7 +17354,7 @@
         <v>6</v>
       </c>
       <c r="E45">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G45">
         <v>6</v>
@@ -17386,7 +17386,7 @@
         <v>7</v>
       </c>
       <c r="E46">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>7</v>
@@ -17418,7 +17418,7 @@
         <v>5</v>
       </c>
       <c r="E47">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G47">
         <v>6</v>
@@ -17450,7 +17450,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -17482,7 +17482,7 @@
         <v>8</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>8</v>
@@ -17514,7 +17514,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -17546,7 +17546,7 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -17578,7 +17578,7 @@
         <v>10</v>
       </c>
       <c r="E52">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G52">
         <v>10</v>
@@ -17610,7 +17610,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -17678,7 +17678,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -17687,7 +17687,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -17710,7 +17710,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -17719,7 +17719,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -17742,7 +17742,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -17751,7 +17751,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -17774,7 +17774,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C5">
         <v>15</v>
@@ -17783,7 +17783,7 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -17806,7 +17806,7 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>16</v>
@@ -17815,7 +17815,7 @@
         <v>16</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -17838,7 +17838,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -17847,7 +17847,7 @@
         <v>8</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -17870,7 +17870,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -17879,7 +17879,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -17902,7 +17902,7 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C9">
         <v>16</v>
@@ -17911,7 +17911,7 @@
         <v>16</v>
       </c>
       <c r="E9">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G9">
         <v>9</v>
@@ -17934,7 +17934,7 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -17943,7 +17943,7 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -17966,7 +17966,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -17975,7 +17975,7 @@
         <v>2</v>
       </c>
       <c r="E11">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -17998,7 +17998,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -18007,7 +18007,7 @@
         <v>2</v>
       </c>
       <c r="E12">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -18030,7 +18030,7 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -18039,7 +18039,7 @@
         <v>4</v>
       </c>
       <c r="E13">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -18062,7 +18062,7 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -18071,7 +18071,7 @@
         <v>4</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -18094,7 +18094,7 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C15">
         <v>16</v>
@@ -18103,7 +18103,7 @@
         <v>16</v>
       </c>
       <c r="E15">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -18126,7 +18126,7 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C16">
         <v>16</v>
@@ -18135,7 +18135,7 @@
         <v>16</v>
       </c>
       <c r="E16">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -18158,7 +18158,7 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -18167,7 +18167,7 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -18190,7 +18190,7 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C18">
         <v>16</v>
@@ -18199,7 +18199,7 @@
         <v>16</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -18222,7 +18222,7 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C19">
         <v>8</v>
@@ -18231,7 +18231,7 @@
         <v>8</v>
       </c>
       <c r="E19">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -18254,7 +18254,7 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -18263,7 +18263,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -18318,7 +18318,7 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C22">
         <v>16</v>
@@ -18327,7 +18327,7 @@
         <v>16</v>
       </c>
       <c r="E22">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G22">
         <v>9</v>
@@ -18350,16 +18350,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="C23">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -18382,7 +18382,7 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C24">
         <v>10</v>
@@ -18391,7 +18391,7 @@
         <v>10</v>
       </c>
       <c r="E24">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -18414,7 +18414,7 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -18423,7 +18423,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -18446,7 +18446,7 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -18455,7 +18455,7 @@
         <v>6</v>
       </c>
       <c r="E26">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -18478,7 +18478,7 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -18487,7 +18487,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -18510,7 +18510,7 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -18519,7 +18519,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -18542,7 +18542,7 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -18551,7 +18551,7 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -18574,7 +18574,7 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C30">
         <v>16</v>
@@ -18583,7 +18583,7 @@
         <v>16</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G30">
         <v>14</v>
@@ -18606,7 +18606,7 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C31">
         <v>8</v>
@@ -18615,7 +18615,7 @@
         <v>8</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -18638,7 +18638,7 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C32">
         <v>16</v>
@@ -18647,7 +18647,7 @@
         <v>16</v>
       </c>
       <c r="E32">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -18670,7 +18670,7 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C33">
         <v>15</v>
@@ -18679,7 +18679,7 @@
         <v>15</v>
       </c>
       <c r="E33">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G33">
         <v>9</v>
@@ -18702,7 +18702,7 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C34">
         <v>16</v>
@@ -18711,7 +18711,7 @@
         <v>16</v>
       </c>
       <c r="E34">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -18734,7 +18734,7 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C35">
         <v>8</v>
@@ -18743,7 +18743,7 @@
         <v>8</v>
       </c>
       <c r="E35">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G35">
         <v>7</v>
@@ -18766,7 +18766,7 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -18775,7 +18775,7 @@
         <v>5</v>
       </c>
       <c r="E36">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -18798,7 +18798,7 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C37">
         <v>8</v>
@@ -18807,7 +18807,7 @@
         <v>8</v>
       </c>
       <c r="E37">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -18830,7 +18830,7 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -18839,7 +18839,7 @@
         <v>2</v>
       </c>
       <c r="E38">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -18862,7 +18862,7 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -18871,7 +18871,7 @@
         <v>5</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -18894,7 +18894,7 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -18903,7 +18903,7 @@
         <v>5</v>
       </c>
       <c r="E40">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -18926,7 +18926,7 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -18935,7 +18935,7 @@
         <v>3</v>
       </c>
       <c r="E41">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -18958,7 +18958,7 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C42">
         <v>16</v>
@@ -18967,7 +18967,7 @@
         <v>16</v>
       </c>
       <c r="E42">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G42">
         <v>7</v>
@@ -18990,7 +18990,7 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C43">
         <v>8</v>
@@ -18999,7 +18999,7 @@
         <v>8</v>
       </c>
       <c r="E43">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -19022,7 +19022,7 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C44">
         <v>10</v>
@@ -19031,7 +19031,7 @@
         <v>10</v>
       </c>
       <c r="E44">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -19054,7 +19054,7 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -19063,7 +19063,7 @@
         <v>4</v>
       </c>
       <c r="E45">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -19086,7 +19086,7 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -19095,7 +19095,7 @@
         <v>5</v>
       </c>
       <c r="E46">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -19118,7 +19118,7 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -19127,7 +19127,7 @@
         <v>2</v>
       </c>
       <c r="E47">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -19150,7 +19150,7 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C48">
         <v>15</v>
@@ -19159,7 +19159,7 @@
         <v>15</v>
       </c>
       <c r="E48">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -19182,7 +19182,7 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -19191,7 +19191,7 @@
         <v>4</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -19214,7 +19214,7 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C50">
         <v>2</v>
@@ -19223,7 +19223,7 @@
         <v>2</v>
       </c>
       <c r="E50">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -19246,7 +19246,7 @@
         <v>59</v>
       </c>
       <c r="B51">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -19255,7 +19255,7 @@
         <v>4</v>
       </c>
       <c r="E51">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -19278,7 +19278,7 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C52">
         <v>16</v>
@@ -19287,7 +19287,7 @@
         <v>16</v>
       </c>
       <c r="E52">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G52">
         <v>10</v>
@@ -19310,7 +19310,7 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -19319,7 +19319,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -19387,7 +19387,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -19396,7 +19396,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G2">
         <v>15</v>
@@ -19419,7 +19419,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -19428,7 +19428,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -19451,7 +19451,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -19460,7 +19460,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>16</v>
@@ -19483,7 +19483,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C5">
         <v>15</v>
@@ -19492,7 +19492,7 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>46</v>
@@ -19515,16 +19515,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>21</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>48</v>
@@ -19547,7 +19547,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -19556,7 +19556,7 @@
         <v>8</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>25</v>
@@ -19579,7 +19579,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -19588,7 +19588,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -19611,7 +19611,7 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>15</v>
@@ -19620,7 +19620,7 @@
         <v>15</v>
       </c>
       <c r="E9">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G9">
         <v>33</v>
@@ -19643,7 +19643,7 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -19652,7 +19652,7 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G10">
         <v>29</v>
@@ -19675,7 +19675,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -19684,7 +19684,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G11">
         <v>10</v>
@@ -19707,7 +19707,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -19716,7 +19716,7 @@
         <v>2</v>
       </c>
       <c r="E12">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G12">
         <v>12</v>
@@ -19739,7 +19739,7 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -19748,7 +19748,7 @@
         <v>4</v>
       </c>
       <c r="E13">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G13">
         <v>14</v>
@@ -19771,7 +19771,7 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -19780,7 +19780,7 @@
         <v>4</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G14">
         <v>14</v>
@@ -19803,7 +19803,7 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C15">
         <v>16</v>
@@ -19812,7 +19812,7 @@
         <v>17</v>
       </c>
       <c r="E15">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G15">
         <v>34</v>
@@ -19835,7 +19835,7 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C16">
         <v>16</v>
@@ -19844,7 +19844,7 @@
         <v>16</v>
       </c>
       <c r="E16">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G16">
         <v>47</v>
@@ -19867,7 +19867,7 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -19876,7 +19876,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G17">
         <v>10</v>
@@ -19899,7 +19899,7 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C18">
         <v>16</v>
@@ -19908,7 +19908,7 @@
         <v>17</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>40</v>
@@ -19931,7 +19931,7 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C19">
         <v>8</v>
@@ -19940,7 +19940,7 @@
         <v>8</v>
       </c>
       <c r="E19">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G19">
         <v>24</v>
@@ -19963,7 +19963,7 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -19972,7 +19972,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G20">
         <v>16</v>
@@ -20027,7 +20027,7 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C22">
         <v>16</v>
@@ -20036,7 +20036,7 @@
         <v>16</v>
       </c>
       <c r="E22">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G22">
         <v>34</v>
@@ -20059,16 +20059,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="C23">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G23">
         <v>16</v>
@@ -20091,7 +20091,7 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -20100,7 +20100,7 @@
         <v>4</v>
       </c>
       <c r="E24">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G24">
         <v>14</v>
@@ -20123,7 +20123,7 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -20132,7 +20132,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="G25">
         <v>10</v>
@@ -20155,7 +20155,7 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -20164,7 +20164,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G26">
         <v>10</v>
@@ -20187,7 +20187,7 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -20196,7 +20196,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G27">
         <v>10</v>
@@ -20219,7 +20219,7 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -20228,7 +20228,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G28">
         <v>16</v>
@@ -20251,7 +20251,7 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -20260,7 +20260,7 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G29">
         <v>14</v>
@@ -20283,7 +20283,7 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C30">
         <v>16</v>
@@ -20292,7 +20292,7 @@
         <v>17</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G30">
         <v>47</v>
@@ -20315,7 +20315,7 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -20324,7 +20324,7 @@
         <v>4</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>14</v>
@@ -20347,7 +20347,7 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C32">
         <v>16</v>
@@ -20356,7 +20356,7 @@
         <v>17</v>
       </c>
       <c r="E32">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G32">
         <v>40</v>
@@ -20379,7 +20379,7 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C33">
         <v>15</v>
@@ -20388,7 +20388,7 @@
         <v>15</v>
       </c>
       <c r="E33">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G33">
         <v>45</v>
@@ -20411,7 +20411,7 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C34">
         <v>16</v>
@@ -20420,7 +20420,7 @@
         <v>17</v>
       </c>
       <c r="E34">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G34">
         <v>55</v>
@@ -20443,7 +20443,7 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C35">
         <v>8</v>
@@ -20452,7 +20452,7 @@
         <v>8</v>
       </c>
       <c r="E35">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G35">
         <v>25</v>
@@ -20475,7 +20475,7 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -20484,7 +20484,7 @@
         <v>5</v>
       </c>
       <c r="E36">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G36">
         <v>15</v>
@@ -20507,7 +20507,7 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C37">
         <v>8</v>
@@ -20516,7 +20516,7 @@
         <v>8</v>
       </c>
       <c r="E37">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G37">
         <v>29</v>
@@ -20539,7 +20539,7 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -20548,7 +20548,7 @@
         <v>2</v>
       </c>
       <c r="E38">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G38">
         <v>15</v>
@@ -20571,7 +20571,7 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -20580,7 +20580,7 @@
         <v>5</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G39">
         <v>15</v>
@@ -20603,7 +20603,7 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -20612,7 +20612,7 @@
         <v>5</v>
       </c>
       <c r="E40">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G40">
         <v>18</v>
@@ -20635,7 +20635,7 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -20644,7 +20644,7 @@
         <v>3</v>
       </c>
       <c r="E41">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G41">
         <v>20</v>
@@ -20667,7 +20667,7 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C42">
         <v>16</v>
@@ -20676,7 +20676,7 @@
         <v>16</v>
       </c>
       <c r="E42">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G42">
         <v>47</v>
@@ -20699,7 +20699,7 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C43">
         <v>8</v>
@@ -20708,7 +20708,7 @@
         <v>8</v>
       </c>
       <c r="E43">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G43">
         <v>29</v>
@@ -20731,7 +20731,7 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -20740,7 +20740,7 @@
         <v>4</v>
       </c>
       <c r="E44">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G44">
         <v>14</v>
@@ -20763,7 +20763,7 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -20772,7 +20772,7 @@
         <v>4</v>
       </c>
       <c r="E45">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G45">
         <v>14</v>
@@ -20795,7 +20795,7 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -20804,7 +20804,7 @@
         <v>5</v>
       </c>
       <c r="E46">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>15</v>
@@ -20827,7 +20827,7 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -20836,7 +20836,7 @@
         <v>2</v>
       </c>
       <c r="E47">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G47">
         <v>14</v>
@@ -20859,7 +20859,7 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C48">
         <v>15</v>
@@ -20868,7 +20868,7 @@
         <v>15</v>
       </c>
       <c r="E48">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G48">
         <v>33</v>
@@ -20891,7 +20891,7 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -20900,7 +20900,7 @@
         <v>4</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>18</v>
@@ -20923,7 +20923,7 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C50">
         <v>2</v>
@@ -20932,7 +20932,7 @@
         <v>2</v>
       </c>
       <c r="E50">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G50">
         <v>16</v>
@@ -20955,7 +20955,7 @@
         <v>59</v>
       </c>
       <c r="B51">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -20964,7 +20964,7 @@
         <v>4</v>
       </c>
       <c r="E51">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G51">
         <v>18</v>
@@ -20987,7 +20987,7 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C52">
         <v>16</v>
@@ -20996,7 +20996,7 @@
         <v>16</v>
       </c>
       <c r="E52">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G52">
         <v>47</v>
@@ -21019,7 +21019,7 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -21028,7 +21028,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G53">
         <v>17</v>
@@ -21096,16 +21096,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>16</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G2">
         <v>106</v>
@@ -21137,7 +21137,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -21160,16 +21160,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>9</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>86</v>
@@ -21201,7 +21201,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -21233,7 +21233,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -21265,7 +21265,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -21297,7 +21297,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -21320,7 +21320,7 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>11</v>
@@ -21329,7 +21329,7 @@
         <v>11</v>
       </c>
       <c r="E9">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G9">
         <v>15</v>
@@ -21361,7 +21361,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -21393,7 +21393,7 @@
         <v>2</v>
       </c>
       <c r="E11">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -21416,16 +21416,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C12">
         <v>20</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G12">
         <v>150</v>
@@ -21457,7 +21457,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -21489,7 +21489,7 @@
         <v>3</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -21521,7 +21521,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -21553,7 +21553,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -21585,7 +21585,7 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G17">
         <v>3</v>
@@ -21617,7 +21617,7 @@
         <v>4</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -21649,7 +21649,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -21672,16 +21672,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C20">
         <v>8</v>
       </c>
       <c r="D20">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E20">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G20">
         <v>46</v>
@@ -21736,16 +21736,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C22">
         <v>20</v>
       </c>
       <c r="D22">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E22">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G22">
         <v>59</v>
@@ -21768,16 +21768,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="C23">
-        <v>-1</v>
+        <v>61</v>
       </c>
       <c r="D23">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="E23">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G23">
         <v>158</v>
@@ -21809,7 +21809,7 @@
         <v>3</v>
       </c>
       <c r="E24">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -21832,16 +21832,16 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C25">
         <v>34</v>
       </c>
       <c r="D25">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E25">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="G25">
         <v>170</v>
@@ -21873,7 +21873,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -21905,7 +21905,7 @@
         <v>3</v>
       </c>
       <c r="E27">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -21937,7 +21937,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -21969,7 +21969,7 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -21992,16 +21992,16 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C30">
         <v>18</v>
       </c>
       <c r="D30">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G30">
         <v>65</v>
@@ -22033,7 +22033,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -22065,7 +22065,7 @@
         <v>4</v>
       </c>
       <c r="E32">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -22088,16 +22088,16 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C33">
         <v>14</v>
       </c>
       <c r="D33">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E33">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G33">
         <v>48</v>
@@ -22120,16 +22120,16 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C34">
         <v>7</v>
       </c>
       <c r="D34">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E34">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G34">
         <v>50</v>
@@ -22152,16 +22152,16 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C35">
         <v>25</v>
       </c>
       <c r="D35">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E35">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G35">
         <v>87</v>
@@ -22193,7 +22193,7 @@
         <v>4</v>
       </c>
       <c r="E36">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -22225,7 +22225,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -22257,7 +22257,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -22289,7 +22289,7 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -22321,7 +22321,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -22353,7 +22353,7 @@
         <v>3</v>
       </c>
       <c r="E41">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G41">
         <v>39</v>
@@ -22376,16 +22376,16 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C42">
         <v>18</v>
       </c>
       <c r="D42">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E42">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G42">
         <v>66</v>
@@ -22417,7 +22417,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -22449,7 +22449,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -22481,7 +22481,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -22513,7 +22513,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -22545,7 +22545,7 @@
         <v>2</v>
       </c>
       <c r="E47">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -22568,16 +22568,16 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C48">
         <v>9</v>
       </c>
       <c r="D48">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G48">
         <v>24</v>
@@ -22609,7 +22609,7 @@
         <v>6</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>6</v>
@@ -22641,7 +22641,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -22673,7 +22673,7 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -22705,7 +22705,7 @@
         <v>10</v>
       </c>
       <c r="E52">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G52">
         <v>10</v>
@@ -22728,16 +22728,16 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C53">
         <v>8</v>
       </c>
       <c r="D53">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E53">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G53">
         <v>39</v>
@@ -22805,16 +22805,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>14</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G2">
         <v>106</v>
@@ -22846,7 +22846,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -22869,16 +22869,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>9</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>86</v>
@@ -22910,7 +22910,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -22942,7 +22942,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -22974,7 +22974,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -23006,7 +23006,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -23029,7 +23029,7 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>11</v>
@@ -23038,7 +23038,7 @@
         <v>11</v>
       </c>
       <c r="E9">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G9">
         <v>15</v>
@@ -23070,7 +23070,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -23102,7 +23102,7 @@
         <v>2</v>
       </c>
       <c r="E11">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -23125,16 +23125,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C12">
         <v>18</v>
       </c>
       <c r="D12">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G12">
         <v>150</v>
@@ -23166,7 +23166,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -23198,7 +23198,7 @@
         <v>3</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -23230,7 +23230,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -23262,7 +23262,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -23294,7 +23294,7 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G17">
         <v>3</v>
@@ -23326,7 +23326,7 @@
         <v>4</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -23358,7 +23358,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -23381,16 +23381,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C20">
         <v>8</v>
       </c>
       <c r="D20">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E20">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G20">
         <v>46</v>
@@ -23445,16 +23445,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C22">
         <v>20</v>
       </c>
       <c r="D22">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E22">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G22">
         <v>59</v>
@@ -23477,16 +23477,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="C23">
-        <v>-1</v>
+        <v>61</v>
       </c>
       <c r="D23">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="E23">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G23">
         <v>158</v>
@@ -23518,7 +23518,7 @@
         <v>3</v>
       </c>
       <c r="E24">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -23541,16 +23541,16 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C25">
         <v>34</v>
       </c>
       <c r="D25">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E25">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="G25">
         <v>170</v>
@@ -23582,7 +23582,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -23614,7 +23614,7 @@
         <v>3</v>
       </c>
       <c r="E27">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -23646,7 +23646,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -23678,7 +23678,7 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -23701,16 +23701,16 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C30">
         <v>18</v>
       </c>
       <c r="D30">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G30">
         <v>65</v>
@@ -23742,7 +23742,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -23774,7 +23774,7 @@
         <v>4</v>
       </c>
       <c r="E32">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -23797,16 +23797,16 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C33">
         <v>14</v>
       </c>
       <c r="D33">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E33">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G33">
         <v>48</v>
@@ -23829,16 +23829,16 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C34">
         <v>7</v>
       </c>
       <c r="D34">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E34">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G34">
         <v>50</v>
@@ -23861,16 +23861,16 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C35">
         <v>25</v>
       </c>
       <c r="D35">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E35">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G35">
         <v>87</v>
@@ -23902,7 +23902,7 @@
         <v>4</v>
       </c>
       <c r="E36">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -23934,7 +23934,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -23966,7 +23966,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -23998,7 +23998,7 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -24030,7 +24030,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -24062,7 +24062,7 @@
         <v>3</v>
       </c>
       <c r="E41">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G41">
         <v>39</v>
@@ -24085,16 +24085,16 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C42">
         <v>18</v>
       </c>
       <c r="D42">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E42">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G42">
         <v>66</v>
@@ -24126,7 +24126,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -24158,7 +24158,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -24190,7 +24190,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -24222,7 +24222,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -24254,7 +24254,7 @@
         <v>2</v>
       </c>
       <c r="E47">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -24277,16 +24277,16 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C48">
         <v>9</v>
       </c>
       <c r="D48">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G48">
         <v>24</v>
@@ -24318,7 +24318,7 @@
         <v>6</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>6</v>
@@ -24350,7 +24350,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -24382,7 +24382,7 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -24414,7 +24414,7 @@
         <v>10</v>
       </c>
       <c r="E52">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G52">
         <v>10</v>
@@ -24437,16 +24437,16 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C53">
         <v>8</v>
       </c>
       <c r="D53">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E53">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G53">
         <v>39</v>
@@ -24523,7 +24523,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -24555,7 +24555,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -24587,7 +24587,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -24619,7 +24619,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -24642,16 +24642,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6">
         <v>16</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>35</v>
@@ -24683,7 +24683,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -24715,7 +24715,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -24747,7 +24747,7 @@
         <v>9</v>
       </c>
       <c r="E9">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G9">
         <v>9</v>
@@ -24779,7 +24779,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -24811,7 +24811,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -24843,7 +24843,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -24875,7 +24875,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -24907,7 +24907,7 @@
         <v>3</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -24939,7 +24939,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -24971,7 +24971,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -25003,7 +25003,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -25035,7 +25035,7 @@
         <v>4</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>4</v>
@@ -25067,7 +25067,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -25099,7 +25099,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -25163,7 +25163,7 @@
         <v>9</v>
       </c>
       <c r="E22">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G22">
         <v>9</v>
@@ -25186,16 +25186,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -25227,7 +25227,7 @@
         <v>3</v>
       </c>
       <c r="E24">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -25259,7 +25259,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -25291,7 +25291,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -25323,7 +25323,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -25355,7 +25355,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -25387,7 +25387,7 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -25419,7 +25419,7 @@
         <v>15</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G30">
         <v>15</v>
@@ -25451,7 +25451,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -25483,7 +25483,7 @@
         <v>4</v>
       </c>
       <c r="E32">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G32">
         <v>4</v>
@@ -25515,7 +25515,7 @@
         <v>9</v>
       </c>
       <c r="E33">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G33">
         <v>9</v>
@@ -25547,7 +25547,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -25579,7 +25579,7 @@
         <v>7</v>
       </c>
       <c r="E35">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G35">
         <v>7</v>
@@ -25611,7 +25611,7 @@
         <v>4</v>
       </c>
       <c r="E36">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -25643,7 +25643,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -25675,7 +25675,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -25707,7 +25707,7 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -25739,7 +25739,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -25771,7 +25771,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -25803,7 +25803,7 @@
         <v>7</v>
       </c>
       <c r="E42">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G42">
         <v>7</v>
@@ -25835,7 +25835,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -25867,7 +25867,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -25899,7 +25899,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -25931,7 +25931,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -25963,7 +25963,7 @@
         <v>2</v>
       </c>
       <c r="E47">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -25995,7 +25995,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -26027,7 +26027,7 @@
         <v>3</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -26059,7 +26059,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -26091,7 +26091,7 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -26123,7 +26123,7 @@
         <v>10</v>
       </c>
       <c r="E52">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G52">
         <v>10</v>
@@ -26155,7 +26155,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G53">
         <v>2</v>

--- a/experiment_results/worst_case/ExamDB/3wise/0.8_worst_case.xlsx
+++ b/experiment_results/worst_case/ExamDB/3wise/0.8_worst_case.xlsx
@@ -597,7 +597,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -629,7 +629,7 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -693,7 +693,7 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -853,7 +853,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -917,7 +917,7 @@
         <v>6</v>
       </c>
       <c r="E12">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G12">
         <v>8</v>
@@ -949,7 +949,7 @@
         <v>4</v>
       </c>
       <c r="E13">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -981,7 +981,7 @@
         <v>4</v>
       </c>
       <c r="E14">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -1045,7 +1045,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1077,7 +1077,7 @@
         <v>9</v>
       </c>
       <c r="E17">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G17">
         <v>10</v>
@@ -1301,7 +1301,7 @@
         <v>10</v>
       </c>
       <c r="E24">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G24">
         <v>10</v>
@@ -1365,7 +1365,7 @@
         <v>15</v>
       </c>
       <c r="E26">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G26">
         <v>16</v>
@@ -1397,7 +1397,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -1493,7 +1493,7 @@
         <v>16</v>
       </c>
       <c r="E30">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G30">
         <v>15</v>
@@ -1589,7 +1589,7 @@
         <v>9</v>
       </c>
       <c r="E33">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G33">
         <v>9</v>
@@ -1621,7 +1621,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -1685,7 +1685,7 @@
         <v>4</v>
       </c>
       <c r="E36">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -1717,7 +1717,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -1781,7 +1781,7 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -1845,7 +1845,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -1877,7 +1877,7 @@
         <v>7</v>
       </c>
       <c r="E42">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G42">
         <v>7</v>
@@ -1909,7 +1909,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -1941,7 +1941,7 @@
         <v>10</v>
       </c>
       <c r="E44">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G44">
         <v>10</v>
@@ -2037,7 +2037,7 @@
         <v>5</v>
       </c>
       <c r="E47">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G47">
         <v>6</v>
@@ -2133,7 +2133,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -2197,7 +2197,7 @@
         <v>10</v>
       </c>
       <c r="E52">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G52">
         <v>10</v>
@@ -2229,7 +2229,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -2297,16 +2297,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -2338,7 +2338,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -2402,7 +2402,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -2562,7 +2562,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -2626,7 +2626,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -2658,7 +2658,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -2690,7 +2690,7 @@
         <v>3</v>
       </c>
       <c r="E14">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -2754,7 +2754,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -3010,7 +3010,7 @@
         <v>3</v>
       </c>
       <c r="E24">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -3074,7 +3074,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -3106,7 +3106,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -3202,7 +3202,7 @@
         <v>15</v>
       </c>
       <c r="E30">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G30">
         <v>14</v>
@@ -3298,7 +3298,7 @@
         <v>9</v>
       </c>
       <c r="E33">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G33">
         <v>9</v>
@@ -3330,7 +3330,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -3394,7 +3394,7 @@
         <v>4</v>
       </c>
       <c r="E36">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -3426,7 +3426,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3490,7 +3490,7 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -3554,7 +3554,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -3586,7 +3586,7 @@
         <v>7</v>
       </c>
       <c r="E42">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G42">
         <v>7</v>
@@ -3618,7 +3618,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -3650,7 +3650,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -3746,7 +3746,7 @@
         <v>2</v>
       </c>
       <c r="E47">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -3842,7 +3842,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -3906,7 +3906,7 @@
         <v>10</v>
       </c>
       <c r="E52">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G52">
         <v>10</v>
@@ -3938,7 +3938,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -4015,7 +4015,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -4047,7 +4047,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -4111,7 +4111,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -4271,7 +4271,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -4335,7 +4335,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -4367,7 +4367,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -4399,7 +4399,7 @@
         <v>3</v>
       </c>
       <c r="E14">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -4463,7 +4463,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -4495,7 +4495,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -4719,7 +4719,7 @@
         <v>3</v>
       </c>
       <c r="E24">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -4783,7 +4783,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -4815,7 +4815,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -4911,7 +4911,7 @@
         <v>15</v>
       </c>
       <c r="E30">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G30">
         <v>14</v>
@@ -5007,7 +5007,7 @@
         <v>9</v>
       </c>
       <c r="E33">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G33">
         <v>9</v>
@@ -5039,7 +5039,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -5103,7 +5103,7 @@
         <v>4</v>
       </c>
       <c r="E36">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -5135,7 +5135,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -5199,7 +5199,7 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -5263,7 +5263,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -5295,7 +5295,7 @@
         <v>7</v>
       </c>
       <c r="E42">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G42">
         <v>7</v>
@@ -5327,7 +5327,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -5359,7 +5359,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -5455,7 +5455,7 @@
         <v>2</v>
       </c>
       <c r="E47">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -5551,7 +5551,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -5615,7 +5615,7 @@
         <v>10</v>
       </c>
       <c r="E52">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G52">
         <v>10</v>
@@ -5647,7 +5647,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5724,7 +5724,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -5756,7 +5756,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -5820,7 +5820,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -5980,7 +5980,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -6044,7 +6044,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -6076,7 +6076,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -6108,7 +6108,7 @@
         <v>3</v>
       </c>
       <c r="E14">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -6172,7 +6172,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -6204,7 +6204,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -6428,7 +6428,7 @@
         <v>3</v>
       </c>
       <c r="E24">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -6492,7 +6492,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -6524,7 +6524,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -6620,7 +6620,7 @@
         <v>15</v>
       </c>
       <c r="E30">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G30">
         <v>14</v>
@@ -6716,7 +6716,7 @@
         <v>9</v>
       </c>
       <c r="E33">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G33">
         <v>9</v>
@@ -6748,7 +6748,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -6812,7 +6812,7 @@
         <v>4</v>
       </c>
       <c r="E36">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -6844,7 +6844,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -6908,7 +6908,7 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -6972,7 +6972,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -7004,7 +7004,7 @@
         <v>7</v>
       </c>
       <c r="E42">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G42">
         <v>7</v>
@@ -7036,7 +7036,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -7068,7 +7068,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -7164,7 +7164,7 @@
         <v>2</v>
       </c>
       <c r="E47">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -7260,7 +7260,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -7324,7 +7324,7 @@
         <v>10</v>
       </c>
       <c r="E52">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G52">
         <v>10</v>
@@ -7356,7 +7356,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -7433,7 +7433,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -7465,7 +7465,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -7529,7 +7529,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -7689,7 +7689,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -7753,7 +7753,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -7785,7 +7785,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -7817,7 +7817,7 @@
         <v>3</v>
       </c>
       <c r="E14">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -7881,7 +7881,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -7913,7 +7913,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -8137,7 +8137,7 @@
         <v>3</v>
       </c>
       <c r="E24">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -8201,7 +8201,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -8233,7 +8233,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -8329,7 +8329,7 @@
         <v>15</v>
       </c>
       <c r="E30">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G30">
         <v>14</v>
@@ -8425,7 +8425,7 @@
         <v>9</v>
       </c>
       <c r="E33">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G33">
         <v>9</v>
@@ -8457,7 +8457,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -8521,7 +8521,7 @@
         <v>4</v>
       </c>
       <c r="E36">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -8553,7 +8553,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -8617,7 +8617,7 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -8681,7 +8681,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -8713,7 +8713,7 @@
         <v>7</v>
       </c>
       <c r="E42">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G42">
         <v>7</v>
@@ -8745,7 +8745,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -8777,7 +8777,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -8873,7 +8873,7 @@
         <v>2</v>
       </c>
       <c r="E47">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -8969,7 +8969,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -9033,7 +9033,7 @@
         <v>10</v>
       </c>
       <c r="E52">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G52">
         <v>10</v>
@@ -9065,7 +9065,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -9142,7 +9142,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -9174,7 +9174,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -9238,7 +9238,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -9398,7 +9398,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -9462,7 +9462,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -9494,7 +9494,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -9526,7 +9526,7 @@
         <v>3</v>
       </c>
       <c r="E14">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -9590,7 +9590,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -9622,7 +9622,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -9846,7 +9846,7 @@
         <v>3</v>
       </c>
       <c r="E24">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -9910,7 +9910,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -9942,7 +9942,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -10038,7 +10038,7 @@
         <v>15</v>
       </c>
       <c r="E30">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G30">
         <v>14</v>
@@ -10134,7 +10134,7 @@
         <v>9</v>
       </c>
       <c r="E33">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G33">
         <v>9</v>
@@ -10166,7 +10166,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -10230,7 +10230,7 @@
         <v>4</v>
       </c>
       <c r="E36">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -10262,7 +10262,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -10326,7 +10326,7 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -10390,7 +10390,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -10422,7 +10422,7 @@
         <v>7</v>
       </c>
       <c r="E42">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G42">
         <v>7</v>
@@ -10454,7 +10454,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -10486,7 +10486,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -10582,7 +10582,7 @@
         <v>2</v>
       </c>
       <c r="E47">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -10678,7 +10678,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -10742,7 +10742,7 @@
         <v>10</v>
       </c>
       <c r="E52">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G52">
         <v>10</v>
@@ -10774,7 +10774,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -10851,7 +10851,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -10883,7 +10883,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -10947,7 +10947,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -11107,7 +11107,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -11171,7 +11171,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -11203,7 +11203,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -11235,7 +11235,7 @@
         <v>3</v>
       </c>
       <c r="E14">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -11299,7 +11299,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -11331,7 +11331,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -11555,7 +11555,7 @@
         <v>3</v>
       </c>
       <c r="E24">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -11619,7 +11619,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -11651,7 +11651,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -11747,7 +11747,7 @@
         <v>15</v>
       </c>
       <c r="E30">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G30">
         <v>15</v>
@@ -11843,7 +11843,7 @@
         <v>9</v>
       </c>
       <c r="E33">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G33">
         <v>9</v>
@@ -11875,7 +11875,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -11939,7 +11939,7 @@
         <v>4</v>
       </c>
       <c r="E36">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -11971,7 +11971,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -12035,7 +12035,7 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -12099,7 +12099,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -12131,7 +12131,7 @@
         <v>7</v>
       </c>
       <c r="E42">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G42">
         <v>7</v>
@@ -12163,7 +12163,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -12195,7 +12195,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -12291,7 +12291,7 @@
         <v>2</v>
       </c>
       <c r="E47">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -12387,7 +12387,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -12451,7 +12451,7 @@
         <v>10</v>
       </c>
       <c r="E52">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G52">
         <v>10</v>
@@ -12483,7 +12483,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -12560,7 +12560,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -12592,7 +12592,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -12656,7 +12656,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -12816,7 +12816,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -12880,7 +12880,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -12912,7 +12912,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -12944,7 +12944,7 @@
         <v>3</v>
       </c>
       <c r="E14">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -13008,7 +13008,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -13040,7 +13040,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -13264,7 +13264,7 @@
         <v>3</v>
       </c>
       <c r="E24">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -13328,7 +13328,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -13360,7 +13360,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -13456,7 +13456,7 @@
         <v>15</v>
       </c>
       <c r="E30">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G30">
         <v>14</v>
@@ -13552,7 +13552,7 @@
         <v>9</v>
       </c>
       <c r="E33">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G33">
         <v>9</v>
@@ -13584,7 +13584,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -13648,7 +13648,7 @@
         <v>4</v>
       </c>
       <c r="E36">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -13680,7 +13680,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -13744,7 +13744,7 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -13808,7 +13808,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -13840,7 +13840,7 @@
         <v>7</v>
       </c>
       <c r="E42">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G42">
         <v>7</v>
@@ -13872,7 +13872,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -13904,7 +13904,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -14000,7 +14000,7 @@
         <v>2</v>
       </c>
       <c r="E47">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -14096,7 +14096,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -14160,7 +14160,7 @@
         <v>10</v>
       </c>
       <c r="E52">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G52">
         <v>10</v>
@@ -14192,7 +14192,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -14269,7 +14269,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -14301,7 +14301,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -14365,7 +14365,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -14525,7 +14525,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -14589,7 +14589,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -14621,7 +14621,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -14653,7 +14653,7 @@
         <v>3</v>
       </c>
       <c r="E14">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -14717,7 +14717,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -14749,7 +14749,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -14973,7 +14973,7 @@
         <v>3</v>
       </c>
       <c r="E24">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -15037,7 +15037,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -15069,7 +15069,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -15165,7 +15165,7 @@
         <v>15</v>
       </c>
       <c r="E30">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G30">
         <v>15</v>
@@ -15261,7 +15261,7 @@
         <v>9</v>
       </c>
       <c r="E33">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G33">
         <v>9</v>
@@ -15293,7 +15293,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -15357,7 +15357,7 @@
         <v>4</v>
       </c>
       <c r="E36">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -15389,7 +15389,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -15453,7 +15453,7 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -15517,7 +15517,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -15549,7 +15549,7 @@
         <v>7</v>
       </c>
       <c r="E42">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G42">
         <v>7</v>
@@ -15581,7 +15581,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -15613,7 +15613,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -15709,7 +15709,7 @@
         <v>2</v>
       </c>
       <c r="E47">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -15805,7 +15805,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -15869,7 +15869,7 @@
         <v>10</v>
       </c>
       <c r="E52">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G52">
         <v>10</v>
@@ -15901,7 +15901,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -15969,16 +15969,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -16010,7 +16010,7 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -16074,7 +16074,7 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -16234,7 +16234,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -16298,7 +16298,7 @@
         <v>6</v>
       </c>
       <c r="E12">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G12">
         <v>8</v>
@@ -16330,7 +16330,7 @@
         <v>4</v>
       </c>
       <c r="E13">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -16362,7 +16362,7 @@
         <v>4</v>
       </c>
       <c r="E14">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -16426,7 +16426,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -16458,7 +16458,7 @@
         <v>9</v>
       </c>
       <c r="E17">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G17">
         <v>10</v>
@@ -16682,7 +16682,7 @@
         <v>10</v>
       </c>
       <c r="E24">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G24">
         <v>10</v>
@@ -16746,7 +16746,7 @@
         <v>15</v>
       </c>
       <c r="E26">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G26">
         <v>16</v>
@@ -16778,7 +16778,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -16874,7 +16874,7 @@
         <v>16</v>
       </c>
       <c r="E30">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G30">
         <v>15</v>
@@ -16970,7 +16970,7 @@
         <v>9</v>
       </c>
       <c r="E33">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G33">
         <v>9</v>
@@ -17002,7 +17002,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -17066,7 +17066,7 @@
         <v>4</v>
       </c>
       <c r="E36">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -17098,7 +17098,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -17162,7 +17162,7 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -17226,7 +17226,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -17258,7 +17258,7 @@
         <v>7</v>
       </c>
       <c r="E42">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G42">
         <v>7</v>
@@ -17290,7 +17290,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -17322,7 +17322,7 @@
         <v>10</v>
       </c>
       <c r="E44">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G44">
         <v>10</v>
@@ -17418,7 +17418,7 @@
         <v>5</v>
       </c>
       <c r="E47">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G47">
         <v>6</v>
@@ -17514,7 +17514,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -17578,7 +17578,7 @@
         <v>10</v>
       </c>
       <c r="E52">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G52">
         <v>10</v>
@@ -17610,7 +17610,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -17678,7 +17678,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -17687,7 +17687,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -17719,7 +17719,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -17774,7 +17774,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C5">
         <v>15</v>
@@ -17783,7 +17783,7 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -17934,7 +17934,7 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -17943,7 +17943,7 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -17998,7 +17998,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -18007,7 +18007,7 @@
         <v>2</v>
       </c>
       <c r="E12">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -18039,7 +18039,7 @@
         <v>4</v>
       </c>
       <c r="E13">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -18071,7 +18071,7 @@
         <v>4</v>
       </c>
       <c r="E14">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -18126,7 +18126,7 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C16">
         <v>16</v>
@@ -18135,7 +18135,7 @@
         <v>16</v>
       </c>
       <c r="E16">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -18167,7 +18167,7 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -18391,7 +18391,7 @@
         <v>10</v>
       </c>
       <c r="E24">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -18455,7 +18455,7 @@
         <v>6</v>
       </c>
       <c r="E26">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -18487,7 +18487,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -18574,7 +18574,7 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C30">
         <v>16</v>
@@ -18583,7 +18583,7 @@
         <v>16</v>
       </c>
       <c r="E30">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G30">
         <v>14</v>
@@ -18670,7 +18670,7 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C33">
         <v>15</v>
@@ -18679,7 +18679,7 @@
         <v>15</v>
       </c>
       <c r="E33">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G33">
         <v>9</v>
@@ -18702,7 +18702,7 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C34">
         <v>16</v>
@@ -18711,7 +18711,7 @@
         <v>16</v>
       </c>
       <c r="E34">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -18775,7 +18775,7 @@
         <v>5</v>
       </c>
       <c r="E36">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -18798,7 +18798,7 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C37">
         <v>8</v>
@@ -18807,7 +18807,7 @@
         <v>8</v>
       </c>
       <c r="E37">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -18871,7 +18871,7 @@
         <v>5</v>
       </c>
       <c r="E39">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -18926,7 +18926,7 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -18935,7 +18935,7 @@
         <v>3</v>
       </c>
       <c r="E41">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -18958,7 +18958,7 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C42">
         <v>16</v>
@@ -18967,7 +18967,7 @@
         <v>16</v>
       </c>
       <c r="E42">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G42">
         <v>7</v>
@@ -18990,7 +18990,7 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C43">
         <v>8</v>
@@ -18999,7 +18999,7 @@
         <v>8</v>
       </c>
       <c r="E43">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -19031,7 +19031,7 @@
         <v>10</v>
       </c>
       <c r="E44">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -19127,7 +19127,7 @@
         <v>2</v>
       </c>
       <c r="E47">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -19214,7 +19214,7 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C50">
         <v>2</v>
@@ -19223,7 +19223,7 @@
         <v>2</v>
       </c>
       <c r="E50">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -19278,7 +19278,7 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C52">
         <v>16</v>
@@ -19287,7 +19287,7 @@
         <v>16</v>
       </c>
       <c r="E52">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G52">
         <v>10</v>
@@ -19310,7 +19310,7 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -19319,7 +19319,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -19387,7 +19387,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -19396,7 +19396,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G2">
         <v>15</v>
@@ -19428,7 +19428,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -19483,7 +19483,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C5">
         <v>15</v>
@@ -19492,7 +19492,7 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G5">
         <v>46</v>
@@ -19643,7 +19643,7 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -19652,7 +19652,7 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G10">
         <v>29</v>
@@ -19707,7 +19707,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -19716,7 +19716,7 @@
         <v>2</v>
       </c>
       <c r="E12">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G12">
         <v>12</v>
@@ -19748,7 +19748,7 @@
         <v>4</v>
       </c>
       <c r="E13">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G13">
         <v>14</v>
@@ -19780,7 +19780,7 @@
         <v>4</v>
       </c>
       <c r="E14">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G14">
         <v>14</v>
@@ -19835,7 +19835,7 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C16">
         <v>16</v>
@@ -19844,7 +19844,7 @@
         <v>16</v>
       </c>
       <c r="E16">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G16">
         <v>47</v>
@@ -19876,7 +19876,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G17">
         <v>10</v>
@@ -20100,7 +20100,7 @@
         <v>4</v>
       </c>
       <c r="E24">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G24">
         <v>14</v>
@@ -20164,7 +20164,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G26">
         <v>10</v>
@@ -20196,7 +20196,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G27">
         <v>10</v>
@@ -20283,7 +20283,7 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C30">
         <v>16</v>
@@ -20292,7 +20292,7 @@
         <v>17</v>
       </c>
       <c r="E30">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G30">
         <v>47</v>
@@ -20379,7 +20379,7 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C33">
         <v>15</v>
@@ -20388,7 +20388,7 @@
         <v>15</v>
       </c>
       <c r="E33">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G33">
         <v>45</v>
@@ -20411,7 +20411,7 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C34">
         <v>16</v>
@@ -20420,7 +20420,7 @@
         <v>17</v>
       </c>
       <c r="E34">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G34">
         <v>55</v>
@@ -20484,7 +20484,7 @@
         <v>5</v>
       </c>
       <c r="E36">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G36">
         <v>15</v>
@@ -20507,7 +20507,7 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C37">
         <v>8</v>
@@ -20516,7 +20516,7 @@
         <v>8</v>
       </c>
       <c r="E37">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G37">
         <v>29</v>
@@ -20580,7 +20580,7 @@
         <v>5</v>
       </c>
       <c r="E39">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G39">
         <v>15</v>
@@ -20635,7 +20635,7 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -20644,7 +20644,7 @@
         <v>3</v>
       </c>
       <c r="E41">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G41">
         <v>20</v>
@@ -20667,7 +20667,7 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C42">
         <v>16</v>
@@ -20676,7 +20676,7 @@
         <v>16</v>
       </c>
       <c r="E42">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G42">
         <v>47</v>
@@ -20699,7 +20699,7 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C43">
         <v>8</v>
@@ -20708,7 +20708,7 @@
         <v>8</v>
       </c>
       <c r="E43">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G43">
         <v>29</v>
@@ -20740,7 +20740,7 @@
         <v>4</v>
       </c>
       <c r="E44">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G44">
         <v>14</v>
@@ -20836,7 +20836,7 @@
         <v>2</v>
       </c>
       <c r="E47">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G47">
         <v>14</v>
@@ -20923,7 +20923,7 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C50">
         <v>2</v>
@@ -20932,7 +20932,7 @@
         <v>2</v>
       </c>
       <c r="E50">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G50">
         <v>16</v>
@@ -20987,7 +20987,7 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C52">
         <v>16</v>
@@ -20996,7 +20996,7 @@
         <v>16</v>
       </c>
       <c r="E52">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G52">
         <v>47</v>
@@ -21019,7 +21019,7 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -21028,7 +21028,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G53">
         <v>17</v>
@@ -21096,16 +21096,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>16</v>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G2">
         <v>106</v>
@@ -21137,7 +21137,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -21201,7 +21201,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -21361,7 +21361,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -21416,16 +21416,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>20</v>
       </c>
       <c r="D12">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G12">
         <v>150</v>
@@ -21457,7 +21457,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -21489,7 +21489,7 @@
         <v>3</v>
       </c>
       <c r="E14">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -21553,7 +21553,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -21585,7 +21585,7 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G17">
         <v>3</v>
@@ -21809,7 +21809,7 @@
         <v>3</v>
       </c>
       <c r="E24">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -21873,7 +21873,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -21905,7 +21905,7 @@
         <v>3</v>
       </c>
       <c r="E27">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -21992,16 +21992,16 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C30">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D30">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E30">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G30">
         <v>65</v>
@@ -22088,16 +22088,16 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C33">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D33">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E33">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G33">
         <v>48</v>
@@ -22120,16 +22120,16 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C34">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D34">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E34">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G34">
         <v>50</v>
@@ -22193,7 +22193,7 @@
         <v>4</v>
       </c>
       <c r="E36">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -22225,7 +22225,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -22289,7 +22289,7 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -22344,16 +22344,16 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C41">
         <v>3</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E41">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G41">
         <v>39</v>
@@ -22376,16 +22376,16 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C42">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D42">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E42">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G42">
         <v>66</v>
@@ -22417,7 +22417,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -22449,7 +22449,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -22545,7 +22545,7 @@
         <v>2</v>
       </c>
       <c r="E47">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -22641,7 +22641,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -22705,7 +22705,7 @@
         <v>10</v>
       </c>
       <c r="E52">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G52">
         <v>10</v>
@@ -22728,16 +22728,16 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C53">
         <v>8</v>
       </c>
       <c r="D53">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G53">
         <v>39</v>
@@ -22805,16 +22805,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>14</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G2">
         <v>106</v>
@@ -22846,7 +22846,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -22910,7 +22910,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -23070,7 +23070,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -23125,16 +23125,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>18</v>
       </c>
       <c r="D12">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G12">
         <v>150</v>
@@ -23166,7 +23166,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -23198,7 +23198,7 @@
         <v>3</v>
       </c>
       <c r="E14">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -23262,7 +23262,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -23294,7 +23294,7 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G17">
         <v>3</v>
@@ -23518,7 +23518,7 @@
         <v>3</v>
       </c>
       <c r="E24">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -23582,7 +23582,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -23614,7 +23614,7 @@
         <v>3</v>
       </c>
       <c r="E27">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -23701,16 +23701,16 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C30">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D30">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E30">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G30">
         <v>65</v>
@@ -23797,16 +23797,16 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C33">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D33">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E33">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G33">
         <v>48</v>
@@ -23829,16 +23829,16 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C34">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D34">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E34">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G34">
         <v>50</v>
@@ -23902,7 +23902,7 @@
         <v>4</v>
       </c>
       <c r="E36">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -23934,7 +23934,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -23998,7 +23998,7 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -24053,16 +24053,16 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C41">
         <v>3</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E41">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G41">
         <v>39</v>
@@ -24085,16 +24085,16 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C42">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D42">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E42">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G42">
         <v>66</v>
@@ -24126,7 +24126,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -24158,7 +24158,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -24254,7 +24254,7 @@
         <v>2</v>
       </c>
       <c r="E47">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -24350,7 +24350,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -24414,7 +24414,7 @@
         <v>10</v>
       </c>
       <c r="E52">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G52">
         <v>10</v>
@@ -24437,16 +24437,16 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C53">
         <v>8</v>
       </c>
       <c r="D53">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G53">
         <v>39</v>
@@ -24523,7 +24523,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -24555,7 +24555,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -24619,7 +24619,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -24779,7 +24779,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -24843,7 +24843,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -24875,7 +24875,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -24907,7 +24907,7 @@
         <v>3</v>
       </c>
       <c r="E14">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -24971,7 +24971,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -25003,7 +25003,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -25227,7 +25227,7 @@
         <v>3</v>
       </c>
       <c r="E24">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -25291,7 +25291,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -25323,7 +25323,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -25419,7 +25419,7 @@
         <v>15</v>
       </c>
       <c r="E30">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G30">
         <v>15</v>
@@ -25515,7 +25515,7 @@
         <v>9</v>
       </c>
       <c r="E33">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G33">
         <v>9</v>
@@ -25547,7 +25547,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -25611,7 +25611,7 @@
         <v>4</v>
       </c>
       <c r="E36">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -25643,7 +25643,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -25707,7 +25707,7 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -25771,7 +25771,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -25803,7 +25803,7 @@
         <v>7</v>
       </c>
       <c r="E42">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G42">
         <v>7</v>
@@ -25835,7 +25835,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -25867,7 +25867,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -25963,7 +25963,7 @@
         <v>2</v>
       </c>
       <c r="E47">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -26059,7 +26059,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -26123,7 +26123,7 @@
         <v>10</v>
       </c>
       <c r="E52">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G52">
         <v>10</v>
@@ -26155,7 +26155,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G53">
         <v>2</v>

--- a/experiment_results/worst_case/ExamDB/3wise/0.8_worst_case.xlsx
+++ b/experiment_results/worst_case/ExamDB/3wise/0.8_worst_case.xlsx
@@ -14388,13 +14388,13 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>16</v>
       </c>
       <c r="D6">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>50</v>

--- a/experiment_results/worst_case/ExamDB/3wise/0.8_worst_case.xlsx
+++ b/experiment_results/worst_case/ExamDB/3wise/0.8_worst_case.xlsx
@@ -661,7 +661,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -725,7 +725,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -757,7 +757,7 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -789,7 +789,7 @@
         <v>10</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>11</v>
@@ -821,7 +821,7 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -885,7 +885,7 @@
         <v>15</v>
       </c>
       <c r="E11">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G11">
         <v>16</v>
@@ -1013,7 +1013,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1109,7 +1109,7 @@
         <v>3</v>
       </c>
       <c r="E18">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -1141,7 +1141,7 @@
         <v>3</v>
       </c>
       <c r="E19">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G19">
         <v>3</v>
@@ -1164,16 +1164,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -1237,7 +1237,7 @@
         <v>9</v>
       </c>
       <c r="E22">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G22">
         <v>9</v>
@@ -1269,7 +1269,7 @@
         <v>2</v>
       </c>
       <c r="E23">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -1333,7 +1333,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -1429,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1461,7 +1461,7 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -1525,7 +1525,7 @@
         <v>13</v>
       </c>
       <c r="E31">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G31">
         <v>13</v>
@@ -1557,7 +1557,7 @@
         <v>3</v>
       </c>
       <c r="E32">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -1653,7 +1653,7 @@
         <v>7</v>
       </c>
       <c r="E35">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G35">
         <v>7</v>
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -1813,7 +1813,7 @@
         <v>5</v>
       </c>
       <c r="E40">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G40">
         <v>5</v>
@@ -1973,7 +1973,7 @@
         <v>6</v>
       </c>
       <c r="E45">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G45">
         <v>6</v>
@@ -2005,7 +2005,7 @@
         <v>7</v>
       </c>
       <c r="E46">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G46">
         <v>7</v>
@@ -2069,7 +2069,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -2101,7 +2101,7 @@
         <v>8</v>
       </c>
       <c r="E49">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G49">
         <v>8</v>
@@ -2165,7 +2165,7 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -2229,7 +2229,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -2361,16 +2361,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -2434,7 +2434,7 @@
         <v>6</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -2466,7 +2466,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -2498,7 +2498,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -2530,7 +2530,7 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -2594,7 +2594,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -2722,7 +2722,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -2818,7 +2818,7 @@
         <v>4</v>
       </c>
       <c r="E18">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -2850,7 +2850,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2873,16 +2873,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2946,7 +2946,7 @@
         <v>9</v>
       </c>
       <c r="E22">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G22">
         <v>9</v>
@@ -2969,16 +2969,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E23">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -3042,7 +3042,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -3138,7 +3138,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -3170,7 +3170,7 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -3234,7 +3234,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -3266,7 +3266,7 @@
         <v>4</v>
       </c>
       <c r="E32">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -3362,7 +3362,7 @@
         <v>7</v>
       </c>
       <c r="E35">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G35">
         <v>7</v>
@@ -3458,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -3522,7 +3522,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -3682,7 +3682,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -3714,7 +3714,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -3778,7 +3778,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -3810,7 +3810,7 @@
         <v>3</v>
       </c>
       <c r="E49">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -3874,7 +3874,7 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -3938,7 +3938,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -4070,16 +4070,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -4143,7 +4143,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -4175,7 +4175,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -4207,7 +4207,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -4239,7 +4239,7 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -4303,7 +4303,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -4431,7 +4431,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -4527,7 +4527,7 @@
         <v>4</v>
       </c>
       <c r="E18">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -4559,7 +4559,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -4582,16 +4582,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -4655,7 +4655,7 @@
         <v>9</v>
       </c>
       <c r="E22">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G22">
         <v>9</v>
@@ -4678,16 +4678,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E23">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -4751,7 +4751,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -4847,7 +4847,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -4879,7 +4879,7 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -4943,7 +4943,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -4975,7 +4975,7 @@
         <v>4</v>
       </c>
       <c r="E32">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -5071,7 +5071,7 @@
         <v>7</v>
       </c>
       <c r="E35">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G35">
         <v>7</v>
@@ -5167,7 +5167,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -5231,7 +5231,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -5391,7 +5391,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -5423,7 +5423,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -5487,7 +5487,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -5519,7 +5519,7 @@
         <v>3</v>
       </c>
       <c r="E49">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -5583,7 +5583,7 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -5647,7 +5647,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5779,16 +5779,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -5852,7 +5852,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -5884,7 +5884,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -5916,7 +5916,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -5948,7 +5948,7 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -6012,7 +6012,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -6140,7 +6140,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -6236,7 +6236,7 @@
         <v>4</v>
       </c>
       <c r="E18">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -6268,7 +6268,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -6291,16 +6291,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -6364,7 +6364,7 @@
         <v>9</v>
       </c>
       <c r="E22">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G22">
         <v>9</v>
@@ -6387,16 +6387,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E23">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -6460,7 +6460,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -6556,7 +6556,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -6588,7 +6588,7 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -6652,7 +6652,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -6684,7 +6684,7 @@
         <v>4</v>
       </c>
       <c r="E32">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -6780,7 +6780,7 @@
         <v>7</v>
       </c>
       <c r="E35">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G35">
         <v>7</v>
@@ -6876,7 +6876,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -6940,7 +6940,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -7100,7 +7100,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -7132,7 +7132,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -7196,7 +7196,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -7228,7 +7228,7 @@
         <v>3</v>
       </c>
       <c r="E49">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -7292,7 +7292,7 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -7356,7 +7356,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -7497,7 +7497,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -7561,7 +7561,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -7593,7 +7593,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -7625,7 +7625,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -7657,7 +7657,7 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -7721,7 +7721,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -7849,7 +7849,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -7945,7 +7945,7 @@
         <v>4</v>
       </c>
       <c r="E18">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -7977,7 +7977,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -8000,16 +8000,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -8073,7 +8073,7 @@
         <v>9</v>
       </c>
       <c r="E22">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G22">
         <v>9</v>
@@ -8099,13 +8099,13 @@
         <v>3</v>
       </c>
       <c r="C23">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D23">
         <v>3</v>
       </c>
       <c r="E23">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -8169,7 +8169,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -8265,7 +8265,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -8297,7 +8297,7 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -8361,7 +8361,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -8393,7 +8393,7 @@
         <v>4</v>
       </c>
       <c r="E32">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -8489,7 +8489,7 @@
         <v>7</v>
       </c>
       <c r="E35">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G35">
         <v>7</v>
@@ -8585,7 +8585,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -8649,7 +8649,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -8809,7 +8809,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -8841,7 +8841,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -8905,7 +8905,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -8937,7 +8937,7 @@
         <v>3</v>
       </c>
       <c r="E49">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -9001,7 +9001,7 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -9065,7 +9065,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -9206,7 +9206,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -9270,7 +9270,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -9302,7 +9302,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -9334,7 +9334,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -9366,7 +9366,7 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -9430,7 +9430,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -9558,7 +9558,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -9654,7 +9654,7 @@
         <v>4</v>
       </c>
       <c r="E18">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -9686,7 +9686,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -9709,16 +9709,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -9782,7 +9782,7 @@
         <v>9</v>
       </c>
       <c r="E22">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G22">
         <v>9</v>
@@ -9814,7 +9814,7 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -9878,7 +9878,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -9974,7 +9974,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -10006,7 +10006,7 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -10070,7 +10070,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -10102,7 +10102,7 @@
         <v>4</v>
       </c>
       <c r="E32">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -10198,7 +10198,7 @@
         <v>7</v>
       </c>
       <c r="E35">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G35">
         <v>7</v>
@@ -10294,7 +10294,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -10358,7 +10358,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -10518,7 +10518,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -10550,7 +10550,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -10614,7 +10614,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -10646,7 +10646,7 @@
         <v>3</v>
       </c>
       <c r="E49">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -10710,7 +10710,7 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -10774,7 +10774,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -10915,7 +10915,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -10979,7 +10979,7 @@
         <v>30</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>40</v>
@@ -11011,7 +11011,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -11043,7 +11043,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -11075,7 +11075,7 @@
         <v>9</v>
       </c>
       <c r="E9">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G9">
         <v>9</v>
@@ -11139,7 +11139,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -11267,7 +11267,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -11363,7 +11363,7 @@
         <v>4</v>
       </c>
       <c r="E18">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G18">
         <v>4</v>
@@ -11395,7 +11395,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -11427,7 +11427,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -11491,7 +11491,7 @@
         <v>9</v>
       </c>
       <c r="E22">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G22">
         <v>9</v>
@@ -11523,7 +11523,7 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -11587,7 +11587,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -11683,7 +11683,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -11715,7 +11715,7 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -11779,7 +11779,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -11811,7 +11811,7 @@
         <v>4</v>
       </c>
       <c r="E32">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G32">
         <v>4</v>
@@ -11907,7 +11907,7 @@
         <v>7</v>
       </c>
       <c r="E35">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G35">
         <v>7</v>
@@ -12003,7 +12003,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -12067,7 +12067,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -12227,7 +12227,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -12259,7 +12259,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -12323,7 +12323,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -12355,7 +12355,7 @@
         <v>3</v>
       </c>
       <c r="E49">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -12419,7 +12419,7 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -12483,7 +12483,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -12624,7 +12624,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -12688,7 +12688,7 @@
         <v>6</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -12720,7 +12720,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -12752,7 +12752,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -12784,7 +12784,7 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -12848,7 +12848,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -12976,7 +12976,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -13072,7 +13072,7 @@
         <v>4</v>
       </c>
       <c r="E18">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -13104,7 +13104,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -13127,16 +13127,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -13200,7 +13200,7 @@
         <v>9</v>
       </c>
       <c r="E22">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G22">
         <v>9</v>
@@ -13232,7 +13232,7 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -13296,7 +13296,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -13392,7 +13392,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -13424,7 +13424,7 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -13488,7 +13488,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -13520,7 +13520,7 @@
         <v>4</v>
       </c>
       <c r="E32">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -13616,7 +13616,7 @@
         <v>7</v>
       </c>
       <c r="E35">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G35">
         <v>7</v>
@@ -13712,7 +13712,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -13776,7 +13776,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -13936,7 +13936,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -13968,7 +13968,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -14032,7 +14032,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -14064,7 +14064,7 @@
         <v>3</v>
       </c>
       <c r="E49">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -14128,7 +14128,7 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -14192,7 +14192,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -14333,7 +14333,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -14397,7 +14397,7 @@
         <v>30</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>40</v>
@@ -14429,7 +14429,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -14461,7 +14461,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -14493,7 +14493,7 @@
         <v>9</v>
       </c>
       <c r="E9">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G9">
         <v>9</v>
@@ -14557,7 +14557,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -14685,7 +14685,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -14781,7 +14781,7 @@
         <v>4</v>
       </c>
       <c r="E18">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G18">
         <v>4</v>
@@ -14813,7 +14813,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -14845,7 +14845,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -14909,7 +14909,7 @@
         <v>9</v>
       </c>
       <c r="E22">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G22">
         <v>9</v>
@@ -14941,7 +14941,7 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -15005,7 +15005,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -15101,7 +15101,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -15133,7 +15133,7 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -15197,7 +15197,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -15229,7 +15229,7 @@
         <v>4</v>
       </c>
       <c r="E32">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G32">
         <v>4</v>
@@ -15325,7 +15325,7 @@
         <v>7</v>
       </c>
       <c r="E35">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G35">
         <v>7</v>
@@ -15421,7 +15421,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -15485,7 +15485,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -15645,7 +15645,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -15677,7 +15677,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -15741,7 +15741,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -15773,7 +15773,7 @@
         <v>3</v>
       </c>
       <c r="E49">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -15837,7 +15837,7 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -15901,7 +15901,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -16033,16 +16033,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -16106,7 +16106,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -16138,7 +16138,7 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -16170,7 +16170,7 @@
         <v>10</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>11</v>
@@ -16202,7 +16202,7 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -16266,7 +16266,7 @@
         <v>15</v>
       </c>
       <c r="E11">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G11">
         <v>16</v>
@@ -16394,7 +16394,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -16490,7 +16490,7 @@
         <v>3</v>
       </c>
       <c r="E18">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -16522,7 +16522,7 @@
         <v>3</v>
       </c>
       <c r="E19">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G19">
         <v>3</v>
@@ -16545,16 +16545,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -16618,7 +16618,7 @@
         <v>9</v>
       </c>
       <c r="E22">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G22">
         <v>9</v>
@@ -16641,16 +16641,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E23">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -16714,7 +16714,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -16810,7 +16810,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -16842,7 +16842,7 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -16906,7 +16906,7 @@
         <v>13</v>
       </c>
       <c r="E31">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G31">
         <v>13</v>
@@ -16938,7 +16938,7 @@
         <v>3</v>
       </c>
       <c r="E32">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -17034,7 +17034,7 @@
         <v>7</v>
       </c>
       <c r="E35">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G35">
         <v>7</v>
@@ -17130,7 +17130,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -17194,7 +17194,7 @@
         <v>5</v>
       </c>
       <c r="E40">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G40">
         <v>5</v>
@@ -17354,7 +17354,7 @@
         <v>6</v>
       </c>
       <c r="E45">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G45">
         <v>6</v>
@@ -17386,7 +17386,7 @@
         <v>7</v>
       </c>
       <c r="E46">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G46">
         <v>7</v>
@@ -17450,7 +17450,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -17482,7 +17482,7 @@
         <v>8</v>
       </c>
       <c r="E49">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G49">
         <v>8</v>
@@ -17546,7 +17546,7 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -17610,7 +17610,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -17742,7 +17742,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -17751,7 +17751,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -17815,7 +17815,7 @@
         <v>16</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -17847,7 +17847,7 @@
         <v>8</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -17879,7 +17879,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -17911,7 +17911,7 @@
         <v>16</v>
       </c>
       <c r="E9">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G9">
         <v>9</v>
@@ -17975,7 +17975,7 @@
         <v>2</v>
       </c>
       <c r="E11">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -18103,7 +18103,7 @@
         <v>16</v>
       </c>
       <c r="E15">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -18199,7 +18199,7 @@
         <v>16</v>
       </c>
       <c r="E18">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -18231,7 +18231,7 @@
         <v>8</v>
       </c>
       <c r="E19">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -18263,7 +18263,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -18327,7 +18327,7 @@
         <v>16</v>
       </c>
       <c r="E22">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G22">
         <v>9</v>
@@ -18350,7 +18350,7 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -18359,7 +18359,7 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -18423,7 +18423,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -18510,7 +18510,7 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -18519,7 +18519,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -18551,7 +18551,7 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -18615,7 +18615,7 @@
         <v>8</v>
       </c>
       <c r="E31">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -18647,7 +18647,7 @@
         <v>16</v>
       </c>
       <c r="E32">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -18743,7 +18743,7 @@
         <v>8</v>
       </c>
       <c r="E35">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G35">
         <v>7</v>
@@ -18830,7 +18830,7 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -18839,7 +18839,7 @@
         <v>2</v>
       </c>
       <c r="E38">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -18903,7 +18903,7 @@
         <v>5</v>
       </c>
       <c r="E40">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -19063,7 +19063,7 @@
         <v>4</v>
       </c>
       <c r="E45">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -19095,7 +19095,7 @@
         <v>5</v>
       </c>
       <c r="E46">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -19159,7 +19159,7 @@
         <v>15</v>
       </c>
       <c r="E48">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -19191,7 +19191,7 @@
         <v>4</v>
       </c>
       <c r="E49">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -19255,7 +19255,7 @@
         <v>4</v>
       </c>
       <c r="E51">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -19310,7 +19310,7 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -19319,7 +19319,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -19460,7 +19460,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G4">
         <v>16</v>
@@ -19515,7 +19515,7 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>21</v>
@@ -19524,7 +19524,7 @@
         <v>30</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>48</v>
@@ -19556,7 +19556,7 @@
         <v>8</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>25</v>
@@ -19588,7 +19588,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -19620,7 +19620,7 @@
         <v>15</v>
       </c>
       <c r="E9">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G9">
         <v>33</v>
@@ -19684,7 +19684,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G11">
         <v>10</v>
@@ -19812,7 +19812,7 @@
         <v>17</v>
       </c>
       <c r="E15">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G15">
         <v>34</v>
@@ -19908,7 +19908,7 @@
         <v>17</v>
       </c>
       <c r="E18">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G18">
         <v>40</v>
@@ -19940,7 +19940,7 @@
         <v>8</v>
       </c>
       <c r="E19">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G19">
         <v>24</v>
@@ -19972,7 +19972,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G20">
         <v>16</v>
@@ -20036,7 +20036,7 @@
         <v>16</v>
       </c>
       <c r="E22">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G22">
         <v>34</v>
@@ -20059,7 +20059,7 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -20068,7 +20068,7 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="G23">
         <v>16</v>
@@ -20132,7 +20132,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="G25">
         <v>10</v>
@@ -20219,7 +20219,7 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -20228,7 +20228,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G28">
         <v>16</v>
@@ -20260,7 +20260,7 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G29">
         <v>14</v>
@@ -20324,7 +20324,7 @@
         <v>4</v>
       </c>
       <c r="E31">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G31">
         <v>14</v>
@@ -20356,7 +20356,7 @@
         <v>17</v>
       </c>
       <c r="E32">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G32">
         <v>40</v>
@@ -20452,7 +20452,7 @@
         <v>8</v>
       </c>
       <c r="E35">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G35">
         <v>25</v>
@@ -20539,7 +20539,7 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -20548,7 +20548,7 @@
         <v>2</v>
       </c>
       <c r="E38">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G38">
         <v>15</v>
@@ -20612,7 +20612,7 @@
         <v>5</v>
       </c>
       <c r="E40">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G40">
         <v>18</v>
@@ -20772,7 +20772,7 @@
         <v>4</v>
       </c>
       <c r="E45">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G45">
         <v>14</v>
@@ -20804,7 +20804,7 @@
         <v>5</v>
       </c>
       <c r="E46">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G46">
         <v>15</v>
@@ -20868,7 +20868,7 @@
         <v>15</v>
       </c>
       <c r="E48">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G48">
         <v>33</v>
@@ -20900,7 +20900,7 @@
         <v>4</v>
       </c>
       <c r="E49">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G49">
         <v>18</v>
@@ -20964,7 +20964,7 @@
         <v>4</v>
       </c>
       <c r="E51">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G51">
         <v>18</v>
@@ -21019,7 +21019,7 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -21028,7 +21028,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G53">
         <v>17</v>
@@ -21160,16 +21160,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>9</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G4">
         <v>86</v>
@@ -21233,7 +21233,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -21265,7 +21265,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -21297,7 +21297,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -21320,16 +21320,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>11</v>
       </c>
       <c r="D9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G9">
         <v>15</v>
@@ -21393,7 +21393,7 @@
         <v>2</v>
       </c>
       <c r="E11">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -21521,7 +21521,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -21617,7 +21617,7 @@
         <v>4</v>
       </c>
       <c r="E18">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -21649,7 +21649,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -21672,16 +21672,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C20">
         <v>8</v>
       </c>
       <c r="D20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G20">
         <v>46</v>
@@ -21736,16 +21736,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C22">
         <v>20</v>
       </c>
       <c r="D22">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E22">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G22">
         <v>59</v>
@@ -21768,16 +21768,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C23">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D23">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E23">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="G23">
         <v>158</v>
@@ -21832,16 +21832,16 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C25">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D25">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="G25">
         <v>170</v>
@@ -21937,7 +21937,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -21969,7 +21969,7 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -22033,7 +22033,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -22065,7 +22065,7 @@
         <v>4</v>
       </c>
       <c r="E32">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -22152,16 +22152,16 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C35">
         <v>25</v>
       </c>
       <c r="D35">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E35">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G35">
         <v>87</v>
@@ -22257,7 +22257,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -22321,7 +22321,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -22481,7 +22481,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -22513,7 +22513,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -22568,16 +22568,16 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C48">
         <v>9</v>
       </c>
       <c r="D48">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G48">
         <v>24</v>
@@ -22609,7 +22609,7 @@
         <v>6</v>
       </c>
       <c r="E49">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G49">
         <v>6</v>
@@ -22673,7 +22673,7 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -22737,7 +22737,7 @@
         <v>10</v>
       </c>
       <c r="E53">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G53">
         <v>39</v>
@@ -22869,16 +22869,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>9</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G4">
         <v>86</v>
@@ -22942,7 +22942,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -22974,7 +22974,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -23006,7 +23006,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -23029,16 +23029,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>11</v>
       </c>
       <c r="D9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G9">
         <v>15</v>
@@ -23102,7 +23102,7 @@
         <v>2</v>
       </c>
       <c r="E11">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -23230,7 +23230,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -23326,7 +23326,7 @@
         <v>4</v>
       </c>
       <c r="E18">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -23358,7 +23358,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -23381,16 +23381,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C20">
         <v>8</v>
       </c>
       <c r="D20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G20">
         <v>46</v>
@@ -23445,16 +23445,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C22">
         <v>20</v>
       </c>
       <c r="D22">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E22">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G22">
         <v>59</v>
@@ -23477,16 +23477,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C23">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D23">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E23">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="G23">
         <v>158</v>
@@ -23541,16 +23541,16 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C25">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D25">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="G25">
         <v>170</v>
@@ -23646,7 +23646,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -23678,7 +23678,7 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -23742,7 +23742,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -23774,7 +23774,7 @@
         <v>4</v>
       </c>
       <c r="E32">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -23861,16 +23861,16 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C35">
         <v>25</v>
       </c>
       <c r="D35">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E35">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G35">
         <v>87</v>
@@ -23966,7 +23966,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -24030,7 +24030,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -24190,7 +24190,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -24222,7 +24222,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -24277,16 +24277,16 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C48">
         <v>9</v>
       </c>
       <c r="D48">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G48">
         <v>24</v>
@@ -24318,7 +24318,7 @@
         <v>6</v>
       </c>
       <c r="E49">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G49">
         <v>6</v>
@@ -24382,7 +24382,7 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -24446,7 +24446,7 @@
         <v>10</v>
       </c>
       <c r="E53">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G53">
         <v>39</v>
@@ -24587,7 +24587,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -24651,7 +24651,7 @@
         <v>27</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>35</v>
@@ -24683,7 +24683,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -24715,7 +24715,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -24747,7 +24747,7 @@
         <v>9</v>
       </c>
       <c r="E9">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G9">
         <v>9</v>
@@ -24811,7 +24811,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -24939,7 +24939,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -25035,7 +25035,7 @@
         <v>4</v>
       </c>
       <c r="E18">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G18">
         <v>4</v>
@@ -25067,7 +25067,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -25099,7 +25099,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -25163,7 +25163,7 @@
         <v>9</v>
       </c>
       <c r="E22">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G22">
         <v>9</v>
@@ -25195,7 +25195,7 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -25259,7 +25259,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -25355,7 +25355,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -25387,7 +25387,7 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -25451,7 +25451,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -25483,7 +25483,7 @@
         <v>4</v>
       </c>
       <c r="E32">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G32">
         <v>4</v>
@@ -25579,7 +25579,7 @@
         <v>7</v>
       </c>
       <c r="E35">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G35">
         <v>7</v>
@@ -25675,7 +25675,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -25739,7 +25739,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -25899,7 +25899,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -25931,7 +25931,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -25995,7 +25995,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -26027,7 +26027,7 @@
         <v>3</v>
       </c>
       <c r="E49">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -26091,7 +26091,7 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -26155,7 +26155,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G53">
         <v>2</v>

--- a/experiment_results/worst_case/ExamDB/3wise/0.8_worst_case.xlsx
+++ b/experiment_results/worst_case/ExamDB/3wise/0.8_worst_case.xlsx
@@ -597,7 +597,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -629,7 +629,7 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -661,7 +661,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -693,7 +693,7 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -725,7 +725,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -757,7 +757,7 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -789,7 +789,7 @@
         <v>10</v>
       </c>
       <c r="E8">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="G8">
         <v>11</v>
@@ -821,7 +821,7 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -853,7 +853,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -885,7 +885,7 @@
         <v>15</v>
       </c>
       <c r="E11">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G11">
         <v>16</v>
@@ -917,7 +917,7 @@
         <v>6</v>
       </c>
       <c r="E12">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="G12">
         <v>8</v>
@@ -949,7 +949,7 @@
         <v>4</v>
       </c>
       <c r="E13">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -981,7 +981,7 @@
         <v>4</v>
       </c>
       <c r="E14">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -1013,7 +1013,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1045,7 +1045,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1077,7 +1077,7 @@
         <v>9</v>
       </c>
       <c r="E17">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="G17">
         <v>10</v>
@@ -1109,7 +1109,7 @@
         <v>3</v>
       </c>
       <c r="E18">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -1141,7 +1141,7 @@
         <v>3</v>
       </c>
       <c r="E19">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G19">
         <v>3</v>
@@ -1173,7 +1173,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -1237,7 +1237,7 @@
         <v>9</v>
       </c>
       <c r="E22">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="G22">
         <v>9</v>
@@ -1269,7 +1269,7 @@
         <v>2</v>
       </c>
       <c r="E23">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -1301,7 +1301,7 @@
         <v>10</v>
       </c>
       <c r="E24">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G24">
         <v>10</v>
@@ -1333,7 +1333,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -1365,7 +1365,7 @@
         <v>15</v>
       </c>
       <c r="E26">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="G26">
         <v>16</v>
@@ -1397,7 +1397,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -1429,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1461,7 +1461,7 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -1493,7 +1493,7 @@
         <v>16</v>
       </c>
       <c r="E30">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G30">
         <v>15</v>
@@ -1525,7 +1525,7 @@
         <v>13</v>
       </c>
       <c r="E31">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="G31">
         <v>13</v>
@@ -1557,7 +1557,7 @@
         <v>3</v>
       </c>
       <c r="E32">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -1589,7 +1589,7 @@
         <v>9</v>
       </c>
       <c r="E33">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G33">
         <v>9</v>
@@ -1621,7 +1621,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -1653,7 +1653,7 @@
         <v>7</v>
       </c>
       <c r="E35">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="G35">
         <v>7</v>
@@ -1685,7 +1685,7 @@
         <v>4</v>
       </c>
       <c r="E36">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -1717,7 +1717,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -1781,7 +1781,7 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -1813,7 +1813,7 @@
         <v>5</v>
       </c>
       <c r="E40">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="G40">
         <v>5</v>
@@ -1845,7 +1845,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -1877,7 +1877,7 @@
         <v>7</v>
       </c>
       <c r="E42">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G42">
         <v>7</v>
@@ -1909,7 +1909,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -1941,7 +1941,7 @@
         <v>10</v>
       </c>
       <c r="E44">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G44">
         <v>10</v>
@@ -1973,7 +1973,7 @@
         <v>6</v>
       </c>
       <c r="E45">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="G45">
         <v>6</v>
@@ -2005,7 +2005,7 @@
         <v>7</v>
       </c>
       <c r="E46">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="G46">
         <v>7</v>
@@ -2037,7 +2037,7 @@
         <v>5</v>
       </c>
       <c r="E47">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="G47">
         <v>6</v>
@@ -2069,7 +2069,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -2101,7 +2101,7 @@
         <v>8</v>
       </c>
       <c r="E49">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="G49">
         <v>8</v>
@@ -2133,7 +2133,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -2165,7 +2165,7 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -2197,7 +2197,7 @@
         <v>10</v>
       </c>
       <c r="E52">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G52">
         <v>10</v>
@@ -2229,7 +2229,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -2306,7 +2306,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -2338,7 +2338,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -2370,7 +2370,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -2402,7 +2402,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -2434,7 +2434,7 @@
         <v>6</v>
       </c>
       <c r="E6">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -2466,7 +2466,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -2498,7 +2498,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -2530,7 +2530,7 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -2562,7 +2562,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -2594,7 +2594,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -2626,7 +2626,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -2658,7 +2658,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -2690,7 +2690,7 @@
         <v>3</v>
       </c>
       <c r="E14">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -2722,7 +2722,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -2754,7 +2754,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -2818,7 +2818,7 @@
         <v>4</v>
       </c>
       <c r="E18">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -2850,7 +2850,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2882,7 +2882,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2946,7 +2946,7 @@
         <v>9</v>
       </c>
       <c r="E22">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="G22">
         <v>9</v>
@@ -2978,7 +2978,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -3010,7 +3010,7 @@
         <v>3</v>
       </c>
       <c r="E24">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -3042,7 +3042,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -3074,7 +3074,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -3106,7 +3106,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -3138,7 +3138,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -3170,7 +3170,7 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -3202,7 +3202,7 @@
         <v>15</v>
       </c>
       <c r="E30">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G30">
         <v>14</v>
@@ -3234,7 +3234,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -3266,7 +3266,7 @@
         <v>4</v>
       </c>
       <c r="E32">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -3298,7 +3298,7 @@
         <v>9</v>
       </c>
       <c r="E33">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G33">
         <v>9</v>
@@ -3330,7 +3330,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -3362,7 +3362,7 @@
         <v>7</v>
       </c>
       <c r="E35">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="G35">
         <v>7</v>
@@ -3394,7 +3394,7 @@
         <v>4</v>
       </c>
       <c r="E36">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -3426,7 +3426,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3458,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -3490,7 +3490,7 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -3522,7 +3522,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -3554,7 +3554,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -3586,7 +3586,7 @@
         <v>7</v>
       </c>
       <c r="E42">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G42">
         <v>7</v>
@@ -3618,7 +3618,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -3650,7 +3650,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -3682,7 +3682,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -3714,7 +3714,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -3746,7 +3746,7 @@
         <v>2</v>
       </c>
       <c r="E47">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -3778,7 +3778,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -3810,7 +3810,7 @@
         <v>3</v>
       </c>
       <c r="E49">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -3842,7 +3842,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -3874,7 +3874,7 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -3906,7 +3906,7 @@
         <v>10</v>
       </c>
       <c r="E52">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G52">
         <v>10</v>
@@ -3938,7 +3938,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -4015,7 +4015,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -4047,7 +4047,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -4079,7 +4079,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -4111,7 +4111,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -4143,7 +4143,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -4175,7 +4175,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -4207,7 +4207,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -4239,7 +4239,7 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -4271,7 +4271,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -4303,7 +4303,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -4335,7 +4335,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -4367,7 +4367,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -4399,7 +4399,7 @@
         <v>3</v>
       </c>
       <c r="E14">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -4431,7 +4431,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -4463,7 +4463,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -4495,7 +4495,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -4527,7 +4527,7 @@
         <v>4</v>
       </c>
       <c r="E18">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -4559,7 +4559,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -4591,7 +4591,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -4655,7 +4655,7 @@
         <v>9</v>
       </c>
       <c r="E22">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="G22">
         <v>9</v>
@@ -4687,7 +4687,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -4719,7 +4719,7 @@
         <v>3</v>
       </c>
       <c r="E24">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -4751,7 +4751,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -4783,7 +4783,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -4815,7 +4815,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -4847,7 +4847,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -4879,7 +4879,7 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -4911,7 +4911,7 @@
         <v>15</v>
       </c>
       <c r="E30">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G30">
         <v>14</v>
@@ -4943,7 +4943,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -4975,7 +4975,7 @@
         <v>4</v>
       </c>
       <c r="E32">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -5007,7 +5007,7 @@
         <v>9</v>
       </c>
       <c r="E33">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G33">
         <v>9</v>
@@ -5039,7 +5039,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -5071,7 +5071,7 @@
         <v>7</v>
       </c>
       <c r="E35">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="G35">
         <v>7</v>
@@ -5103,7 +5103,7 @@
         <v>4</v>
       </c>
       <c r="E36">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -5135,7 +5135,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -5167,7 +5167,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -5199,7 +5199,7 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -5231,7 +5231,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -5263,7 +5263,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -5295,7 +5295,7 @@
         <v>7</v>
       </c>
       <c r="E42">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G42">
         <v>7</v>
@@ -5327,7 +5327,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -5359,7 +5359,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -5391,7 +5391,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -5423,7 +5423,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -5455,7 +5455,7 @@
         <v>2</v>
       </c>
       <c r="E47">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -5487,7 +5487,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -5519,7 +5519,7 @@
         <v>3</v>
       </c>
       <c r="E49">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -5551,7 +5551,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -5583,7 +5583,7 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -5615,7 +5615,7 @@
         <v>10</v>
       </c>
       <c r="E52">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G52">
         <v>10</v>
@@ -5647,7 +5647,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5724,7 +5724,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -5756,7 +5756,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -5788,7 +5788,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -5820,7 +5820,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -5852,7 +5852,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -5884,7 +5884,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -5916,7 +5916,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -5948,7 +5948,7 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -5980,7 +5980,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -6012,7 +6012,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -6044,7 +6044,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -6076,7 +6076,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -6108,7 +6108,7 @@
         <v>3</v>
       </c>
       <c r="E14">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -6140,7 +6140,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -6172,7 +6172,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -6204,7 +6204,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -6236,7 +6236,7 @@
         <v>4</v>
       </c>
       <c r="E18">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -6268,7 +6268,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -6300,7 +6300,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -6364,7 +6364,7 @@
         <v>9</v>
       </c>
       <c r="E22">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="G22">
         <v>9</v>
@@ -6396,7 +6396,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -6428,7 +6428,7 @@
         <v>3</v>
       </c>
       <c r="E24">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -6460,7 +6460,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -6492,7 +6492,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -6524,7 +6524,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -6556,7 +6556,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -6588,7 +6588,7 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -6620,7 +6620,7 @@
         <v>15</v>
       </c>
       <c r="E30">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G30">
         <v>14</v>
@@ -6652,7 +6652,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -6684,7 +6684,7 @@
         <v>4</v>
       </c>
       <c r="E32">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -6716,7 +6716,7 @@
         <v>9</v>
       </c>
       <c r="E33">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G33">
         <v>9</v>
@@ -6748,7 +6748,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -6780,7 +6780,7 @@
         <v>7</v>
       </c>
       <c r="E35">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="G35">
         <v>7</v>
@@ -6812,7 +6812,7 @@
         <v>4</v>
       </c>
       <c r="E36">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -6844,7 +6844,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -6876,7 +6876,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -6908,7 +6908,7 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -6940,7 +6940,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -6972,7 +6972,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -7004,7 +7004,7 @@
         <v>7</v>
       </c>
       <c r="E42">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G42">
         <v>7</v>
@@ -7036,7 +7036,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -7068,7 +7068,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -7100,7 +7100,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -7132,7 +7132,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -7164,7 +7164,7 @@
         <v>2</v>
       </c>
       <c r="E47">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -7196,7 +7196,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -7228,7 +7228,7 @@
         <v>3</v>
       </c>
       <c r="E49">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -7260,7 +7260,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -7292,7 +7292,7 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -7324,7 +7324,7 @@
         <v>10</v>
       </c>
       <c r="E52">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G52">
         <v>10</v>
@@ -7356,7 +7356,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -7433,7 +7433,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -7465,7 +7465,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -7497,7 +7497,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -7529,7 +7529,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -7561,7 +7561,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -7593,7 +7593,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -7625,7 +7625,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -7657,7 +7657,7 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -7689,7 +7689,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -7721,7 +7721,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -7753,7 +7753,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -7785,7 +7785,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -7817,7 +7817,7 @@
         <v>3</v>
       </c>
       <c r="E14">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -7849,7 +7849,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -7881,7 +7881,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -7913,7 +7913,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -7945,7 +7945,7 @@
         <v>4</v>
       </c>
       <c r="E18">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -7977,7 +7977,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -8009,7 +8009,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -8073,7 +8073,7 @@
         <v>9</v>
       </c>
       <c r="E22">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="G22">
         <v>9</v>
@@ -8099,13 +8099,13 @@
         <v>3</v>
       </c>
       <c r="C23">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D23">
         <v>3</v>
       </c>
       <c r="E23">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -8137,7 +8137,7 @@
         <v>3</v>
       </c>
       <c r="E24">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -8163,13 +8163,13 @@
         <v>2</v>
       </c>
       <c r="C25">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="D25">
         <v>2</v>
       </c>
       <c r="E25">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -8201,7 +8201,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -8233,7 +8233,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -8265,7 +8265,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -8297,7 +8297,7 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -8329,7 +8329,7 @@
         <v>15</v>
       </c>
       <c r="E30">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G30">
         <v>14</v>
@@ -8361,7 +8361,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -8393,7 +8393,7 @@
         <v>4</v>
       </c>
       <c r="E32">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -8425,7 +8425,7 @@
         <v>9</v>
       </c>
       <c r="E33">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G33">
         <v>9</v>
@@ -8457,7 +8457,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -8489,7 +8489,7 @@
         <v>7</v>
       </c>
       <c r="E35">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="G35">
         <v>7</v>
@@ -8521,7 +8521,7 @@
         <v>4</v>
       </c>
       <c r="E36">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -8553,7 +8553,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -8585,7 +8585,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -8617,7 +8617,7 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -8649,7 +8649,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -8675,13 +8675,13 @@
         <v>2</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41">
         <v>2</v>
       </c>
       <c r="E41">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -8713,7 +8713,7 @@
         <v>7</v>
       </c>
       <c r="E42">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G42">
         <v>7</v>
@@ -8745,7 +8745,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -8777,7 +8777,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -8809,7 +8809,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -8841,7 +8841,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -8873,7 +8873,7 @@
         <v>2</v>
       </c>
       <c r="E47">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -8905,7 +8905,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -8937,7 +8937,7 @@
         <v>3</v>
       </c>
       <c r="E49">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -8969,7 +8969,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -9001,7 +9001,7 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -9033,7 +9033,7 @@
         <v>10</v>
       </c>
       <c r="E52">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G52">
         <v>10</v>
@@ -9065,7 +9065,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -9142,7 +9142,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -9174,7 +9174,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -9206,7 +9206,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -9238,7 +9238,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -9270,7 +9270,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -9302,7 +9302,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -9334,7 +9334,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -9366,7 +9366,7 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -9398,7 +9398,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -9430,7 +9430,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -9462,7 +9462,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -9494,7 +9494,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -9526,7 +9526,7 @@
         <v>3</v>
       </c>
       <c r="E14">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -9558,7 +9558,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -9590,7 +9590,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -9622,7 +9622,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -9654,7 +9654,7 @@
         <v>4</v>
       </c>
       <c r="E18">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -9686,7 +9686,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -9718,7 +9718,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -9782,7 +9782,7 @@
         <v>9</v>
       </c>
       <c r="E22">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="G22">
         <v>9</v>
@@ -9814,7 +9814,7 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -9846,7 +9846,7 @@
         <v>3</v>
       </c>
       <c r="E24">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -9878,7 +9878,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -9910,7 +9910,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -9942,7 +9942,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -9974,7 +9974,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -10006,7 +10006,7 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -10038,7 +10038,7 @@
         <v>15</v>
       </c>
       <c r="E30">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G30">
         <v>14</v>
@@ -10070,7 +10070,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -10102,7 +10102,7 @@
         <v>4</v>
       </c>
       <c r="E32">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -10134,7 +10134,7 @@
         <v>9</v>
       </c>
       <c r="E33">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G33">
         <v>9</v>
@@ -10166,7 +10166,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -10198,7 +10198,7 @@
         <v>7</v>
       </c>
       <c r="E35">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="G35">
         <v>7</v>
@@ -10230,7 +10230,7 @@
         <v>4</v>
       </c>
       <c r="E36">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -10262,7 +10262,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -10294,7 +10294,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -10326,7 +10326,7 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -10358,7 +10358,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -10390,7 +10390,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -10422,7 +10422,7 @@
         <v>7</v>
       </c>
       <c r="E42">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G42">
         <v>7</v>
@@ -10454,7 +10454,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -10486,7 +10486,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -10518,7 +10518,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -10550,7 +10550,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -10582,7 +10582,7 @@
         <v>2</v>
       </c>
       <c r="E47">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -10614,7 +10614,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -10646,7 +10646,7 @@
         <v>3</v>
       </c>
       <c r="E49">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -10678,7 +10678,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -10710,7 +10710,7 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -10742,7 +10742,7 @@
         <v>10</v>
       </c>
       <c r="E52">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G52">
         <v>10</v>
@@ -10774,7 +10774,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -10851,7 +10851,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -10883,7 +10883,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -10915,7 +10915,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -10947,7 +10947,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -10979,7 +10979,7 @@
         <v>30</v>
       </c>
       <c r="E6">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>40</v>
@@ -11011,7 +11011,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -11043,7 +11043,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -11075,7 +11075,7 @@
         <v>9</v>
       </c>
       <c r="E9">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="G9">
         <v>9</v>
@@ -11107,7 +11107,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -11139,7 +11139,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -11171,7 +11171,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -11203,7 +11203,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -11235,7 +11235,7 @@
         <v>3</v>
       </c>
       <c r="E14">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -11267,7 +11267,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -11299,7 +11299,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -11331,7 +11331,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -11363,7 +11363,7 @@
         <v>4</v>
       </c>
       <c r="E18">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G18">
         <v>4</v>
@@ -11395,7 +11395,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -11427,7 +11427,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -11491,7 +11491,7 @@
         <v>9</v>
       </c>
       <c r="E22">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="G22">
         <v>9</v>
@@ -11523,7 +11523,7 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -11555,7 +11555,7 @@
         <v>3</v>
       </c>
       <c r="E24">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -11587,7 +11587,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -11619,7 +11619,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -11651,7 +11651,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -11683,7 +11683,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -11715,7 +11715,7 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -11747,7 +11747,7 @@
         <v>15</v>
       </c>
       <c r="E30">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G30">
         <v>15</v>
@@ -11779,7 +11779,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -11811,7 +11811,7 @@
         <v>4</v>
       </c>
       <c r="E32">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G32">
         <v>4</v>
@@ -11843,7 +11843,7 @@
         <v>9</v>
       </c>
       <c r="E33">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G33">
         <v>9</v>
@@ -11875,7 +11875,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -11907,7 +11907,7 @@
         <v>7</v>
       </c>
       <c r="E35">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="G35">
         <v>7</v>
@@ -11939,7 +11939,7 @@
         <v>4</v>
       </c>
       <c r="E36">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -11971,7 +11971,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -12003,7 +12003,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -12035,7 +12035,7 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -12067,7 +12067,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -12099,7 +12099,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -12131,7 +12131,7 @@
         <v>7</v>
       </c>
       <c r="E42">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G42">
         <v>7</v>
@@ -12163,7 +12163,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -12195,7 +12195,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -12227,7 +12227,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -12259,7 +12259,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -12291,7 +12291,7 @@
         <v>2</v>
       </c>
       <c r="E47">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -12323,7 +12323,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -12355,7 +12355,7 @@
         <v>3</v>
       </c>
       <c r="E49">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -12387,7 +12387,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -12419,7 +12419,7 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -12451,7 +12451,7 @@
         <v>10</v>
       </c>
       <c r="E52">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G52">
         <v>10</v>
@@ -12483,7 +12483,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -12560,7 +12560,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -12592,7 +12592,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -12624,7 +12624,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -12656,7 +12656,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -12688,7 +12688,7 @@
         <v>6</v>
       </c>
       <c r="E6">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -12720,7 +12720,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -12752,7 +12752,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -12784,7 +12784,7 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -12816,7 +12816,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -12848,7 +12848,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -12880,7 +12880,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -12912,7 +12912,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -12944,7 +12944,7 @@
         <v>3</v>
       </c>
       <c r="E14">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -12976,7 +12976,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -13008,7 +13008,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -13040,7 +13040,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -13072,7 +13072,7 @@
         <v>4</v>
       </c>
       <c r="E18">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -13104,7 +13104,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -13136,7 +13136,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -13200,7 +13200,7 @@
         <v>9</v>
       </c>
       <c r="E22">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="G22">
         <v>9</v>
@@ -13232,7 +13232,7 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -13264,7 +13264,7 @@
         <v>3</v>
       </c>
       <c r="E24">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -13296,7 +13296,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -13328,7 +13328,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -13360,7 +13360,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -13392,7 +13392,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -13424,7 +13424,7 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -13456,7 +13456,7 @@
         <v>15</v>
       </c>
       <c r="E30">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G30">
         <v>14</v>
@@ -13488,7 +13488,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -13520,7 +13520,7 @@
         <v>4</v>
       </c>
       <c r="E32">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -13552,7 +13552,7 @@
         <v>9</v>
       </c>
       <c r="E33">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G33">
         <v>9</v>
@@ -13584,7 +13584,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -13616,7 +13616,7 @@
         <v>7</v>
       </c>
       <c r="E35">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="G35">
         <v>7</v>
@@ -13648,7 +13648,7 @@
         <v>4</v>
       </c>
       <c r="E36">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -13680,7 +13680,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -13712,7 +13712,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -13744,7 +13744,7 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -13776,7 +13776,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -13808,7 +13808,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -13840,7 +13840,7 @@
         <v>7</v>
       </c>
       <c r="E42">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G42">
         <v>7</v>
@@ -13872,7 +13872,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -13904,7 +13904,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -13936,7 +13936,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -13968,7 +13968,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -14000,7 +14000,7 @@
         <v>2</v>
       </c>
       <c r="E47">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -14032,7 +14032,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -14064,7 +14064,7 @@
         <v>3</v>
       </c>
       <c r="E49">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -14096,7 +14096,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -14128,7 +14128,7 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -14160,7 +14160,7 @@
         <v>10</v>
       </c>
       <c r="E52">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G52">
         <v>10</v>
@@ -14192,7 +14192,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -14269,7 +14269,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -14301,7 +14301,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -14333,7 +14333,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -14365,7 +14365,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -14397,7 +14397,7 @@
         <v>30</v>
       </c>
       <c r="E6">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>40</v>
@@ -14429,7 +14429,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -14461,7 +14461,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -14493,7 +14493,7 @@
         <v>9</v>
       </c>
       <c r="E9">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="G9">
         <v>9</v>
@@ -14525,7 +14525,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -14557,7 +14557,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -14589,7 +14589,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -14621,7 +14621,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -14653,7 +14653,7 @@
         <v>3</v>
       </c>
       <c r="E14">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -14685,7 +14685,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -14717,7 +14717,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -14749,7 +14749,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -14781,7 +14781,7 @@
         <v>4</v>
       </c>
       <c r="E18">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G18">
         <v>4</v>
@@ -14813,7 +14813,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -14845,7 +14845,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -14909,7 +14909,7 @@
         <v>9</v>
       </c>
       <c r="E22">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="G22">
         <v>9</v>
@@ -14941,7 +14941,7 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -14973,7 +14973,7 @@
         <v>3</v>
       </c>
       <c r="E24">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -15005,7 +15005,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -15037,7 +15037,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -15069,7 +15069,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -15101,7 +15101,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -15133,7 +15133,7 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -15165,7 +15165,7 @@
         <v>15</v>
       </c>
       <c r="E30">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G30">
         <v>15</v>
@@ -15197,7 +15197,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -15229,7 +15229,7 @@
         <v>4</v>
       </c>
       <c r="E32">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G32">
         <v>4</v>
@@ -15261,7 +15261,7 @@
         <v>9</v>
       </c>
       <c r="E33">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G33">
         <v>9</v>
@@ -15293,7 +15293,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -15325,7 +15325,7 @@
         <v>7</v>
       </c>
       <c r="E35">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="G35">
         <v>7</v>
@@ -15357,7 +15357,7 @@
         <v>4</v>
       </c>
       <c r="E36">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -15389,7 +15389,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -15421,7 +15421,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -15453,7 +15453,7 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -15485,7 +15485,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -15517,7 +15517,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -15549,7 +15549,7 @@
         <v>7</v>
       </c>
       <c r="E42">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G42">
         <v>7</v>
@@ -15581,7 +15581,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -15613,7 +15613,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -15645,7 +15645,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -15677,7 +15677,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -15709,7 +15709,7 @@
         <v>2</v>
       </c>
       <c r="E47">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -15741,7 +15741,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -15773,7 +15773,7 @@
         <v>3</v>
       </c>
       <c r="E49">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -15805,7 +15805,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -15837,7 +15837,7 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -15869,7 +15869,7 @@
         <v>10</v>
       </c>
       <c r="E52">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G52">
         <v>10</v>
@@ -15901,7 +15901,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -15978,7 +15978,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -16010,7 +16010,7 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -16042,7 +16042,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -16074,7 +16074,7 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -16106,7 +16106,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -16138,7 +16138,7 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -16170,7 +16170,7 @@
         <v>10</v>
       </c>
       <c r="E8">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="G8">
         <v>11</v>
@@ -16202,7 +16202,7 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -16234,7 +16234,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -16266,7 +16266,7 @@
         <v>15</v>
       </c>
       <c r="E11">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G11">
         <v>16</v>
@@ -16298,7 +16298,7 @@
         <v>6</v>
       </c>
       <c r="E12">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="G12">
         <v>8</v>
@@ -16330,7 +16330,7 @@
         <v>4</v>
       </c>
       <c r="E13">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -16362,7 +16362,7 @@
         <v>4</v>
       </c>
       <c r="E14">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -16394,7 +16394,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -16426,7 +16426,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -16458,7 +16458,7 @@
         <v>9</v>
       </c>
       <c r="E17">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="G17">
         <v>10</v>
@@ -16490,7 +16490,7 @@
         <v>3</v>
       </c>
       <c r="E18">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -16522,7 +16522,7 @@
         <v>3</v>
       </c>
       <c r="E19">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G19">
         <v>3</v>
@@ -16554,7 +16554,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -16618,7 +16618,7 @@
         <v>9</v>
       </c>
       <c r="E22">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="G22">
         <v>9</v>
@@ -16650,7 +16650,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -16682,7 +16682,7 @@
         <v>10</v>
       </c>
       <c r="E24">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G24">
         <v>10</v>
@@ -16714,7 +16714,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -16746,7 +16746,7 @@
         <v>15</v>
       </c>
       <c r="E26">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="G26">
         <v>16</v>
@@ -16778,7 +16778,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -16810,7 +16810,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -16842,7 +16842,7 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -16874,7 +16874,7 @@
         <v>16</v>
       </c>
       <c r="E30">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G30">
         <v>15</v>
@@ -16906,7 +16906,7 @@
         <v>13</v>
       </c>
       <c r="E31">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="G31">
         <v>13</v>
@@ -16938,7 +16938,7 @@
         <v>3</v>
       </c>
       <c r="E32">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -16970,7 +16970,7 @@
         <v>9</v>
       </c>
       <c r="E33">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G33">
         <v>9</v>
@@ -17002,7 +17002,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -17034,7 +17034,7 @@
         <v>7</v>
       </c>
       <c r="E35">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="G35">
         <v>7</v>
@@ -17066,7 +17066,7 @@
         <v>4</v>
       </c>
       <c r="E36">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -17098,7 +17098,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -17130,7 +17130,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -17162,7 +17162,7 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -17194,7 +17194,7 @@
         <v>5</v>
       </c>
       <c r="E40">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="G40">
         <v>5</v>
@@ -17226,7 +17226,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -17258,7 +17258,7 @@
         <v>7</v>
       </c>
       <c r="E42">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G42">
         <v>7</v>
@@ -17290,7 +17290,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -17322,7 +17322,7 @@
         <v>10</v>
       </c>
       <c r="E44">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G44">
         <v>10</v>
@@ -17354,7 +17354,7 @@
         <v>6</v>
       </c>
       <c r="E45">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="G45">
         <v>6</v>
@@ -17386,7 +17386,7 @@
         <v>7</v>
       </c>
       <c r="E46">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="G46">
         <v>7</v>
@@ -17418,7 +17418,7 @@
         <v>5</v>
       </c>
       <c r="E47">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="G47">
         <v>6</v>
@@ -17450,7 +17450,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -17482,7 +17482,7 @@
         <v>8</v>
       </c>
       <c r="E49">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="G49">
         <v>8</v>
@@ -17514,7 +17514,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -17546,7 +17546,7 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -17578,7 +17578,7 @@
         <v>10</v>
       </c>
       <c r="E52">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G52">
         <v>10</v>
@@ -17610,7 +17610,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -17687,7 +17687,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -17719,7 +17719,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -17751,7 +17751,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -17783,7 +17783,7 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -17815,7 +17815,7 @@
         <v>16</v>
       </c>
       <c r="E6">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -17847,7 +17847,7 @@
         <v>8</v>
       </c>
       <c r="E7">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -17879,7 +17879,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -17911,7 +17911,7 @@
         <v>16</v>
       </c>
       <c r="E9">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="G9">
         <v>9</v>
@@ -17943,7 +17943,7 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -17975,7 +17975,7 @@
         <v>2</v>
       </c>
       <c r="E11">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -18007,7 +18007,7 @@
         <v>2</v>
       </c>
       <c r="E12">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -18039,7 +18039,7 @@
         <v>4</v>
       </c>
       <c r="E13">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -18071,7 +18071,7 @@
         <v>4</v>
       </c>
       <c r="E14">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -18103,7 +18103,7 @@
         <v>16</v>
       </c>
       <c r="E15">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -18135,7 +18135,7 @@
         <v>16</v>
       </c>
       <c r="E16">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -18167,7 +18167,7 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -18199,7 +18199,7 @@
         <v>16</v>
       </c>
       <c r="E18">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -18231,7 +18231,7 @@
         <v>8</v>
       </c>
       <c r="E19">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -18263,7 +18263,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -18327,7 +18327,7 @@
         <v>16</v>
       </c>
       <c r="E22">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="G22">
         <v>9</v>
@@ -18359,7 +18359,7 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -18391,7 +18391,7 @@
         <v>10</v>
       </c>
       <c r="E24">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -18423,7 +18423,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -18455,7 +18455,7 @@
         <v>6</v>
       </c>
       <c r="E26">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -18487,7 +18487,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -18519,7 +18519,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -18551,7 +18551,7 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -18583,7 +18583,7 @@
         <v>16</v>
       </c>
       <c r="E30">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G30">
         <v>14</v>
@@ -18615,7 +18615,7 @@
         <v>8</v>
       </c>
       <c r="E31">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -18647,7 +18647,7 @@
         <v>16</v>
       </c>
       <c r="E32">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -18679,7 +18679,7 @@
         <v>15</v>
       </c>
       <c r="E33">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G33">
         <v>9</v>
@@ -18711,7 +18711,7 @@
         <v>16</v>
       </c>
       <c r="E34">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -18743,7 +18743,7 @@
         <v>8</v>
       </c>
       <c r="E35">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="G35">
         <v>7</v>
@@ -18775,7 +18775,7 @@
         <v>5</v>
       </c>
       <c r="E36">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -18807,7 +18807,7 @@
         <v>8</v>
       </c>
       <c r="E37">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -18839,7 +18839,7 @@
         <v>2</v>
       </c>
       <c r="E38">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -18871,7 +18871,7 @@
         <v>5</v>
       </c>
       <c r="E39">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -18903,7 +18903,7 @@
         <v>5</v>
       </c>
       <c r="E40">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -18935,7 +18935,7 @@
         <v>3</v>
       </c>
       <c r="E41">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -18967,7 +18967,7 @@
         <v>16</v>
       </c>
       <c r="E42">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G42">
         <v>7</v>
@@ -18999,7 +18999,7 @@
         <v>8</v>
       </c>
       <c r="E43">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -19031,7 +19031,7 @@
         <v>10</v>
       </c>
       <c r="E44">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -19063,7 +19063,7 @@
         <v>4</v>
       </c>
       <c r="E45">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -19095,7 +19095,7 @@
         <v>5</v>
       </c>
       <c r="E46">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -19127,7 +19127,7 @@
         <v>2</v>
       </c>
       <c r="E47">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -19159,7 +19159,7 @@
         <v>15</v>
       </c>
       <c r="E48">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -19191,7 +19191,7 @@
         <v>4</v>
       </c>
       <c r="E49">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -19223,7 +19223,7 @@
         <v>2</v>
       </c>
       <c r="E50">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -19255,7 +19255,7 @@
         <v>4</v>
       </c>
       <c r="E51">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -19287,7 +19287,7 @@
         <v>16</v>
       </c>
       <c r="E52">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G52">
         <v>10</v>
@@ -19319,7 +19319,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -19396,7 +19396,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="G2">
         <v>15</v>
@@ -19428,7 +19428,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -19460,7 +19460,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>16</v>
@@ -19492,7 +19492,7 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G5">
         <v>46</v>
@@ -19524,7 +19524,7 @@
         <v>30</v>
       </c>
       <c r="E6">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>48</v>
@@ -19556,7 +19556,7 @@
         <v>8</v>
       </c>
       <c r="E7">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G7">
         <v>25</v>
@@ -19588,7 +19588,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -19620,7 +19620,7 @@
         <v>15</v>
       </c>
       <c r="E9">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="G9">
         <v>33</v>
@@ -19652,7 +19652,7 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G10">
         <v>29</v>
@@ -19684,7 +19684,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G11">
         <v>10</v>
@@ -19716,7 +19716,7 @@
         <v>2</v>
       </c>
       <c r="E12">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="G12">
         <v>12</v>
@@ -19748,7 +19748,7 @@
         <v>4</v>
       </c>
       <c r="E13">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G13">
         <v>14</v>
@@ -19780,7 +19780,7 @@
         <v>4</v>
       </c>
       <c r="E14">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G14">
         <v>14</v>
@@ -19812,7 +19812,7 @@
         <v>17</v>
       </c>
       <c r="E15">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="G15">
         <v>34</v>
@@ -19844,7 +19844,7 @@
         <v>16</v>
       </c>
       <c r="E16">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G16">
         <v>47</v>
@@ -19876,7 +19876,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="G17">
         <v>10</v>
@@ -19908,7 +19908,7 @@
         <v>17</v>
       </c>
       <c r="E18">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G18">
         <v>40</v>
@@ -19940,7 +19940,7 @@
         <v>8</v>
       </c>
       <c r="E19">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G19">
         <v>24</v>
@@ -19972,7 +19972,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="G20">
         <v>16</v>
@@ -20036,7 +20036,7 @@
         <v>16</v>
       </c>
       <c r="E22">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="G22">
         <v>34</v>
@@ -20068,7 +20068,7 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="G23">
         <v>16</v>
@@ -20100,7 +20100,7 @@
         <v>4</v>
       </c>
       <c r="E24">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G24">
         <v>14</v>
@@ -20132,7 +20132,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="G25">
         <v>10</v>
@@ -20164,7 +20164,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="G26">
         <v>10</v>
@@ -20196,7 +20196,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="G27">
         <v>10</v>
@@ -20228,7 +20228,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="G28">
         <v>16</v>
@@ -20260,7 +20260,7 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="G29">
         <v>14</v>
@@ -20292,7 +20292,7 @@
         <v>17</v>
       </c>
       <c r="E30">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G30">
         <v>47</v>
@@ -20324,7 +20324,7 @@
         <v>4</v>
       </c>
       <c r="E31">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="G31">
         <v>14</v>
@@ -20356,7 +20356,7 @@
         <v>17</v>
       </c>
       <c r="E32">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G32">
         <v>40</v>
@@ -20388,7 +20388,7 @@
         <v>15</v>
       </c>
       <c r="E33">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G33">
         <v>45</v>
@@ -20420,7 +20420,7 @@
         <v>17</v>
       </c>
       <c r="E34">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G34">
         <v>55</v>
@@ -20452,7 +20452,7 @@
         <v>8</v>
       </c>
       <c r="E35">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="G35">
         <v>25</v>
@@ -20484,7 +20484,7 @@
         <v>5</v>
       </c>
       <c r="E36">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="G36">
         <v>15</v>
@@ -20516,7 +20516,7 @@
         <v>8</v>
       </c>
       <c r="E37">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G37">
         <v>29</v>
@@ -20548,7 +20548,7 @@
         <v>2</v>
       </c>
       <c r="E38">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G38">
         <v>15</v>
@@ -20580,7 +20580,7 @@
         <v>5</v>
       </c>
       <c r="E39">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G39">
         <v>15</v>
@@ -20612,7 +20612,7 @@
         <v>5</v>
       </c>
       <c r="E40">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="G40">
         <v>18</v>
@@ -20644,7 +20644,7 @@
         <v>3</v>
       </c>
       <c r="E41">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G41">
         <v>20</v>
@@ -20676,7 +20676,7 @@
         <v>16</v>
       </c>
       <c r="E42">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G42">
         <v>47</v>
@@ -20708,7 +20708,7 @@
         <v>8</v>
       </c>
       <c r="E43">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G43">
         <v>29</v>
@@ -20740,7 +20740,7 @@
         <v>4</v>
       </c>
       <c r="E44">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G44">
         <v>14</v>
@@ -20772,7 +20772,7 @@
         <v>4</v>
       </c>
       <c r="E45">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="G45">
         <v>14</v>
@@ -20804,7 +20804,7 @@
         <v>5</v>
       </c>
       <c r="E46">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="G46">
         <v>15</v>
@@ -20836,7 +20836,7 @@
         <v>2</v>
       </c>
       <c r="E47">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="G47">
         <v>14</v>
@@ -20868,7 +20868,7 @@
         <v>15</v>
       </c>
       <c r="E48">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="G48">
         <v>33</v>
@@ -20900,7 +20900,7 @@
         <v>4</v>
       </c>
       <c r="E49">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="G49">
         <v>18</v>
@@ -20932,7 +20932,7 @@
         <v>2</v>
       </c>
       <c r="E50">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G50">
         <v>16</v>
@@ -20964,7 +20964,7 @@
         <v>4</v>
       </c>
       <c r="E51">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="G51">
         <v>18</v>
@@ -20996,7 +20996,7 @@
         <v>16</v>
       </c>
       <c r="E52">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G52">
         <v>47</v>
@@ -21028,7 +21028,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G53">
         <v>17</v>
@@ -21096,16 +21096,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>16</v>
-      </c>
-      <c r="D2">
-        <v>20</v>
-      </c>
-      <c r="E2">
-        <v>101</v>
       </c>
       <c r="G2">
         <v>106</v>
@@ -21137,7 +21137,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -21160,16 +21160,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
         <v>9</v>
-      </c>
-      <c r="D4">
-        <v>14</v>
-      </c>
-      <c r="E4">
-        <v>66</v>
       </c>
       <c r="G4">
         <v>86</v>
@@ -21201,7 +21201,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -21233,7 +21233,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -21265,7 +21265,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -21297,7 +21297,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -21320,16 +21320,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E9">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="G9">
         <v>15</v>
@@ -21361,7 +21361,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -21393,7 +21393,7 @@
         <v>2</v>
       </c>
       <c r="E11">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -21416,16 +21416,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="E12">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="G12">
         <v>150</v>
@@ -21457,7 +21457,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -21489,7 +21489,7 @@
         <v>3</v>
       </c>
       <c r="E14">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -21521,7 +21521,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -21553,7 +21553,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -21585,7 +21585,7 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="G17">
         <v>3</v>
@@ -21617,7 +21617,7 @@
         <v>4</v>
       </c>
       <c r="E18">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -21649,7 +21649,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -21672,16 +21672,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="G20">
         <v>46</v>
@@ -21736,16 +21736,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C22">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D22">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E22">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="G22">
         <v>59</v>
@@ -21768,16 +21768,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="D23">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E23">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="G23">
         <v>158</v>
@@ -21809,7 +21809,7 @@
         <v>3</v>
       </c>
       <c r="E24">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -21832,16 +21832,16 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="G25">
         <v>170</v>
@@ -21873,7 +21873,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -21896,16 +21896,16 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -21937,7 +21937,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -21969,7 +21969,7 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -21992,16 +21992,16 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C30">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D30">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E30">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G30">
         <v>65</v>
@@ -22033,7 +22033,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -22065,7 +22065,7 @@
         <v>4</v>
       </c>
       <c r="E32">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -22088,16 +22088,16 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C33">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D33">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E33">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G33">
         <v>48</v>
@@ -22120,16 +22120,16 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C34">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D34">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E34">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G34">
         <v>50</v>
@@ -22152,16 +22152,16 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="C35">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D35">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="E35">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="G35">
         <v>87</v>
@@ -22193,7 +22193,7 @@
         <v>4</v>
       </c>
       <c r="E36">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -22225,7 +22225,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -22257,7 +22257,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -22289,7 +22289,7 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -22321,7 +22321,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -22344,16 +22344,16 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E41">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G41">
         <v>39</v>
@@ -22376,16 +22376,16 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C42">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D42">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="E42">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G42">
         <v>66</v>
@@ -22417,7 +22417,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -22449,7 +22449,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -22481,7 +22481,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -22513,7 +22513,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -22545,7 +22545,7 @@
         <v>2</v>
       </c>
       <c r="E47">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -22568,16 +22568,16 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C48">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D48">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E48">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="G48">
         <v>24</v>
@@ -22609,7 +22609,7 @@
         <v>6</v>
       </c>
       <c r="E49">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="G49">
         <v>6</v>
@@ -22641,7 +22641,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -22673,7 +22673,7 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -22705,7 +22705,7 @@
         <v>10</v>
       </c>
       <c r="E52">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G52">
         <v>10</v>
@@ -22728,16 +22728,16 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C53">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
         <v>10</v>
-      </c>
-      <c r="E53">
-        <v>70</v>
       </c>
       <c r="G53">
         <v>39</v>
@@ -22805,16 +22805,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="G2">
         <v>106</v>
@@ -22846,7 +22846,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -22869,16 +22869,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
         <v>9</v>
-      </c>
-      <c r="D4">
-        <v>14</v>
-      </c>
-      <c r="E4">
-        <v>66</v>
       </c>
       <c r="G4">
         <v>86</v>
@@ -22910,7 +22910,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -22942,7 +22942,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -22974,7 +22974,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -23006,7 +23006,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -23029,16 +23029,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E9">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="G9">
         <v>15</v>
@@ -23070,7 +23070,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -23102,7 +23102,7 @@
         <v>2</v>
       </c>
       <c r="E11">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -23125,16 +23125,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E12">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="G12">
         <v>150</v>
@@ -23166,7 +23166,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -23198,7 +23198,7 @@
         <v>3</v>
       </c>
       <c r="E14">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -23230,7 +23230,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -23262,7 +23262,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -23294,7 +23294,7 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="G17">
         <v>3</v>
@@ -23326,7 +23326,7 @@
         <v>4</v>
       </c>
       <c r="E18">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -23358,7 +23358,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -23381,16 +23381,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="G20">
         <v>46</v>
@@ -23445,16 +23445,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C22">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D22">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E22">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="G22">
         <v>59</v>
@@ -23477,16 +23477,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="D23">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E23">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="G23">
         <v>158</v>
@@ -23518,7 +23518,7 @@
         <v>3</v>
       </c>
       <c r="E24">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -23541,16 +23541,16 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="G25">
         <v>170</v>
@@ -23582,7 +23582,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -23605,16 +23605,16 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -23646,7 +23646,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -23678,7 +23678,7 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -23701,16 +23701,16 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C30">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D30">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E30">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G30">
         <v>65</v>
@@ -23742,7 +23742,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -23774,7 +23774,7 @@
         <v>4</v>
       </c>
       <c r="E32">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -23797,16 +23797,16 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C33">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D33">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E33">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G33">
         <v>48</v>
@@ -23829,16 +23829,16 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C34">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D34">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E34">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G34">
         <v>50</v>
@@ -23861,16 +23861,16 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="C35">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D35">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="E35">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="G35">
         <v>87</v>
@@ -23902,7 +23902,7 @@
         <v>4</v>
       </c>
       <c r="E36">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -23934,7 +23934,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -23966,7 +23966,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -23998,7 +23998,7 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -24030,7 +24030,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -24053,16 +24053,16 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E41">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G41">
         <v>39</v>
@@ -24085,16 +24085,16 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C42">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D42">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="E42">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G42">
         <v>66</v>
@@ -24126,7 +24126,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -24158,7 +24158,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -24190,7 +24190,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -24222,7 +24222,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -24254,7 +24254,7 @@
         <v>2</v>
       </c>
       <c r="E47">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -24277,16 +24277,16 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C48">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D48">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E48">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="G48">
         <v>24</v>
@@ -24318,7 +24318,7 @@
         <v>6</v>
       </c>
       <c r="E49">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="G49">
         <v>6</v>
@@ -24350,7 +24350,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -24382,7 +24382,7 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -24414,7 +24414,7 @@
         <v>10</v>
       </c>
       <c r="E52">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G52">
         <v>10</v>
@@ -24437,16 +24437,16 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C53">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
         <v>10</v>
-      </c>
-      <c r="E53">
-        <v>70</v>
       </c>
       <c r="G53">
         <v>39</v>
@@ -24523,7 +24523,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -24555,7 +24555,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -24587,7 +24587,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -24619,7 +24619,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -24651,7 +24651,7 @@
         <v>27</v>
       </c>
       <c r="E6">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>35</v>
@@ -24683,7 +24683,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -24715,7 +24715,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -24747,7 +24747,7 @@
         <v>9</v>
       </c>
       <c r="E9">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="G9">
         <v>9</v>
@@ -24779,7 +24779,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -24811,7 +24811,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -24843,7 +24843,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -24875,7 +24875,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -24907,7 +24907,7 @@
         <v>3</v>
       </c>
       <c r="E14">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -24939,7 +24939,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -24971,7 +24971,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -25003,7 +25003,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -25035,7 +25035,7 @@
         <v>4</v>
       </c>
       <c r="E18">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G18">
         <v>4</v>
@@ -25067,7 +25067,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -25099,7 +25099,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -25163,7 +25163,7 @@
         <v>9</v>
       </c>
       <c r="E22">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="G22">
         <v>9</v>
@@ -25195,7 +25195,7 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -25227,7 +25227,7 @@
         <v>3</v>
       </c>
       <c r="E24">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -25259,7 +25259,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -25291,7 +25291,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -25323,7 +25323,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -25355,7 +25355,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -25387,7 +25387,7 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -25419,7 +25419,7 @@
         <v>15</v>
       </c>
       <c r="E30">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G30">
         <v>15</v>
@@ -25451,7 +25451,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -25483,7 +25483,7 @@
         <v>4</v>
       </c>
       <c r="E32">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G32">
         <v>4</v>
@@ -25515,7 +25515,7 @@
         <v>9</v>
       </c>
       <c r="E33">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G33">
         <v>9</v>
@@ -25547,7 +25547,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -25579,7 +25579,7 @@
         <v>7</v>
       </c>
       <c r="E35">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="G35">
         <v>7</v>
@@ -25611,7 +25611,7 @@
         <v>4</v>
       </c>
       <c r="E36">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -25643,7 +25643,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -25675,7 +25675,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -25707,7 +25707,7 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -25739,7 +25739,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -25771,7 +25771,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -25803,7 +25803,7 @@
         <v>7</v>
       </c>
       <c r="E42">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G42">
         <v>7</v>
@@ -25835,7 +25835,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -25867,7 +25867,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -25899,7 +25899,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -25931,7 +25931,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -25963,7 +25963,7 @@
         <v>2</v>
       </c>
       <c r="E47">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -25995,7 +25995,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -26027,7 +26027,7 @@
         <v>3</v>
       </c>
       <c r="E49">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -26059,7 +26059,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -26091,7 +26091,7 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -26123,7 +26123,7 @@
         <v>10</v>
       </c>
       <c r="E52">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G52">
         <v>10</v>
@@ -26155,7 +26155,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G53">
         <v>2</v>

--- a/experiment_results/worst_case/ExamDB/3wise/0.8_worst_case.xlsx
+++ b/experiment_results/worst_case/ExamDB/3wise/0.8_worst_case.xlsx
@@ -22,13 +22,15 @@
     <sheet name="rogot1" sheetId="13" r:id="rId13"/>
     <sheet name="geometric_mean" sheetId="14" r:id="rId14"/>
     <sheet name="m2" sheetId="15" r:id="rId15"/>
+    <sheet name="wong1" sheetId="16" r:id="rId16"/>
+    <sheet name="sokal" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="62">
   <si>
     <t>MUTATED_PROJECT</t>
   </si>
@@ -12506,6 +12508,3424 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>251</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>99</v>
+      </c>
+      <c r="L2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>27</v>
+      </c>
+      <c r="G3">
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <v>251</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>99</v>
+      </c>
+      <c r="L3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>16</v>
+      </c>
+      <c r="H4">
+        <v>251</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>99</v>
+      </c>
+      <c r="L4">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>33</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>44</v>
+      </c>
+      <c r="G5">
+        <v>46</v>
+      </c>
+      <c r="H5">
+        <v>251</v>
+      </c>
+      <c r="J5">
+        <v>7</v>
+      </c>
+      <c r="K5">
+        <v>164</v>
+      </c>
+      <c r="L5">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>35</v>
+      </c>
+      <c r="C6">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>30</v>
+      </c>
+      <c r="E6">
+        <v>35</v>
+      </c>
+      <c r="G6">
+        <v>48</v>
+      </c>
+      <c r="H6">
+        <v>251</v>
+      </c>
+      <c r="J6">
+        <v>9</v>
+      </c>
+      <c r="K6">
+        <v>183</v>
+      </c>
+      <c r="L6">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>29</v>
+      </c>
+      <c r="G7">
+        <v>25</v>
+      </c>
+      <c r="H7">
+        <v>251</v>
+      </c>
+      <c r="J7">
+        <v>9</v>
+      </c>
+      <c r="K7">
+        <v>183</v>
+      </c>
+      <c r="L7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>32</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>251</v>
+      </c>
+      <c r="J8">
+        <v>9</v>
+      </c>
+      <c r="K8">
+        <v>183</v>
+      </c>
+      <c r="L8">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>30</v>
+      </c>
+      <c r="G9">
+        <v>33</v>
+      </c>
+      <c r="H9">
+        <v>251</v>
+      </c>
+      <c r="J9">
+        <v>9</v>
+      </c>
+      <c r="K9">
+        <v>183</v>
+      </c>
+      <c r="L9">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>42</v>
+      </c>
+      <c r="G10">
+        <v>29</v>
+      </c>
+      <c r="H10">
+        <v>251</v>
+      </c>
+      <c r="J10">
+        <v>7</v>
+      </c>
+      <c r="K10">
+        <v>164</v>
+      </c>
+      <c r="L10">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>37</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>251</v>
+      </c>
+      <c r="J11">
+        <v>9</v>
+      </c>
+      <c r="K11">
+        <v>183</v>
+      </c>
+      <c r="L11">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>49</v>
+      </c>
+      <c r="G12">
+        <v>12</v>
+      </c>
+      <c r="H12">
+        <v>251</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <v>99</v>
+      </c>
+      <c r="L12">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>34</v>
+      </c>
+      <c r="G13">
+        <v>14</v>
+      </c>
+      <c r="H13">
+        <v>251</v>
+      </c>
+      <c r="J13">
+        <v>7</v>
+      </c>
+      <c r="K13">
+        <v>164</v>
+      </c>
+      <c r="L13">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>34</v>
+      </c>
+      <c r="G14">
+        <v>14</v>
+      </c>
+      <c r="H14">
+        <v>251</v>
+      </c>
+      <c r="J14">
+        <v>7</v>
+      </c>
+      <c r="K14">
+        <v>164</v>
+      </c>
+      <c r="L14">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <v>16</v>
+      </c>
+      <c r="D15">
+        <v>17</v>
+      </c>
+      <c r="E15">
+        <v>25</v>
+      </c>
+      <c r="G15">
+        <v>34</v>
+      </c>
+      <c r="H15">
+        <v>251</v>
+      </c>
+      <c r="J15">
+        <v>9</v>
+      </c>
+      <c r="K15">
+        <v>183</v>
+      </c>
+      <c r="L15">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>16</v>
+      </c>
+      <c r="E16">
+        <v>43</v>
+      </c>
+      <c r="G16">
+        <v>47</v>
+      </c>
+      <c r="H16">
+        <v>251</v>
+      </c>
+      <c r="J16">
+        <v>7</v>
+      </c>
+      <c r="K16">
+        <v>164</v>
+      </c>
+      <c r="L16">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>45</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>251</v>
+      </c>
+      <c r="J17">
+        <v>7</v>
+      </c>
+      <c r="K17">
+        <v>164</v>
+      </c>
+      <c r="L17">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+      <c r="E18">
+        <v>35</v>
+      </c>
+      <c r="G18">
+        <v>40</v>
+      </c>
+      <c r="H18">
+        <v>251</v>
+      </c>
+      <c r="J18">
+        <v>9</v>
+      </c>
+      <c r="K18">
+        <v>183</v>
+      </c>
+      <c r="L18">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>29</v>
+      </c>
+      <c r="G19">
+        <v>24</v>
+      </c>
+      <c r="H19">
+        <v>251</v>
+      </c>
+      <c r="J19">
+        <v>9</v>
+      </c>
+      <c r="K19">
+        <v>183</v>
+      </c>
+      <c r="L19">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>9</v>
+      </c>
+      <c r="G20">
+        <v>16</v>
+      </c>
+      <c r="H20">
+        <v>251</v>
+      </c>
+      <c r="J20">
+        <v>7</v>
+      </c>
+      <c r="K20">
+        <v>115</v>
+      </c>
+      <c r="L20">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>-1</v>
+      </c>
+      <c r="C21">
+        <v>-1</v>
+      </c>
+      <c r="D21">
+        <v>-1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>251</v>
+      </c>
+      <c r="J21">
+        <v>11</v>
+      </c>
+      <c r="K21">
+        <v>251</v>
+      </c>
+      <c r="L21">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <v>16</v>
+      </c>
+      <c r="D22">
+        <v>16</v>
+      </c>
+      <c r="E22">
+        <v>25</v>
+      </c>
+      <c r="G22">
+        <v>34</v>
+      </c>
+      <c r="H22">
+        <v>251</v>
+      </c>
+      <c r="J22">
+        <v>9</v>
+      </c>
+      <c r="K22">
+        <v>183</v>
+      </c>
+      <c r="L22">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>36</v>
+      </c>
+      <c r="G23">
+        <v>16</v>
+      </c>
+      <c r="H23">
+        <v>251</v>
+      </c>
+      <c r="J23">
+        <v>5</v>
+      </c>
+      <c r="K23">
+        <v>96</v>
+      </c>
+      <c r="L23">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>39</v>
+      </c>
+      <c r="G24">
+        <v>14</v>
+      </c>
+      <c r="H24">
+        <v>251</v>
+      </c>
+      <c r="J24">
+        <v>7</v>
+      </c>
+      <c r="K24">
+        <v>164</v>
+      </c>
+      <c r="L24">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>8</v>
+      </c>
+      <c r="G25">
+        <v>10</v>
+      </c>
+      <c r="H25">
+        <v>251</v>
+      </c>
+      <c r="J25">
+        <v>5</v>
+      </c>
+      <c r="K25">
+        <v>96</v>
+      </c>
+      <c r="L25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>45</v>
+      </c>
+      <c r="G26">
+        <v>10</v>
+      </c>
+      <c r="H26">
+        <v>251</v>
+      </c>
+      <c r="J26">
+        <v>7</v>
+      </c>
+      <c r="K26">
+        <v>164</v>
+      </c>
+      <c r="L26">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>12</v>
+      </c>
+      <c r="G27">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>251</v>
+      </c>
+      <c r="J27">
+        <v>5</v>
+      </c>
+      <c r="K27">
+        <v>96</v>
+      </c>
+      <c r="L27">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>11</v>
+      </c>
+      <c r="G28">
+        <v>16</v>
+      </c>
+      <c r="H28">
+        <v>251</v>
+      </c>
+      <c r="J28">
+        <v>7</v>
+      </c>
+      <c r="K28">
+        <v>115</v>
+      </c>
+      <c r="L28">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>22</v>
+      </c>
+      <c r="G29">
+        <v>14</v>
+      </c>
+      <c r="H29">
+        <v>251</v>
+      </c>
+      <c r="J29">
+        <v>9</v>
+      </c>
+      <c r="K29">
+        <v>183</v>
+      </c>
+      <c r="L29">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>34</v>
+      </c>
+      <c r="C30">
+        <v>16</v>
+      </c>
+      <c r="D30">
+        <v>17</v>
+      </c>
+      <c r="E30">
+        <v>43</v>
+      </c>
+      <c r="G30">
+        <v>47</v>
+      </c>
+      <c r="H30">
+        <v>251</v>
+      </c>
+      <c r="J30">
+        <v>7</v>
+      </c>
+      <c r="K30">
+        <v>164</v>
+      </c>
+      <c r="L30">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31">
+        <v>34</v>
+      </c>
+      <c r="G31">
+        <v>14</v>
+      </c>
+      <c r="H31">
+        <v>251</v>
+      </c>
+      <c r="J31">
+        <v>9</v>
+      </c>
+      <c r="K31">
+        <v>183</v>
+      </c>
+      <c r="L31">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>16</v>
+      </c>
+      <c r="D32">
+        <v>17</v>
+      </c>
+      <c r="E32">
+        <v>35</v>
+      </c>
+      <c r="G32">
+        <v>40</v>
+      </c>
+      <c r="H32">
+        <v>251</v>
+      </c>
+      <c r="J32">
+        <v>9</v>
+      </c>
+      <c r="K32">
+        <v>183</v>
+      </c>
+      <c r="L32">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>33</v>
+      </c>
+      <c r="C33">
+        <v>15</v>
+      </c>
+      <c r="D33">
+        <v>15</v>
+      </c>
+      <c r="E33">
+        <v>42</v>
+      </c>
+      <c r="G33">
+        <v>45</v>
+      </c>
+      <c r="H33">
+        <v>251</v>
+      </c>
+      <c r="J33">
+        <v>7</v>
+      </c>
+      <c r="K33">
+        <v>164</v>
+      </c>
+      <c r="L33">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>16</v>
+      </c>
+      <c r="D34">
+        <v>17</v>
+      </c>
+      <c r="E34">
+        <v>34</v>
+      </c>
+      <c r="G34">
+        <v>55</v>
+      </c>
+      <c r="H34">
+        <v>251</v>
+      </c>
+      <c r="J34">
+        <v>7</v>
+      </c>
+      <c r="K34">
+        <v>164</v>
+      </c>
+      <c r="L34">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>17</v>
+      </c>
+      <c r="C35">
+        <v>8</v>
+      </c>
+      <c r="D35">
+        <v>8</v>
+      </c>
+      <c r="E35">
+        <v>17</v>
+      </c>
+      <c r="G35">
+        <v>25</v>
+      </c>
+      <c r="H35">
+        <v>251</v>
+      </c>
+      <c r="J35">
+        <v>9</v>
+      </c>
+      <c r="K35">
+        <v>183</v>
+      </c>
+      <c r="L35">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>11</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="E36">
+        <v>40</v>
+      </c>
+      <c r="G36">
+        <v>15</v>
+      </c>
+      <c r="H36">
+        <v>251</v>
+      </c>
+      <c r="J36">
+        <v>7</v>
+      </c>
+      <c r="K36">
+        <v>164</v>
+      </c>
+      <c r="L36">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>20</v>
+      </c>
+      <c r="C37">
+        <v>8</v>
+      </c>
+      <c r="D37">
+        <v>8</v>
+      </c>
+      <c r="E37">
+        <v>43</v>
+      </c>
+      <c r="G37">
+        <v>29</v>
+      </c>
+      <c r="H37">
+        <v>251</v>
+      </c>
+      <c r="J37">
+        <v>7</v>
+      </c>
+      <c r="K37">
+        <v>164</v>
+      </c>
+      <c r="L37">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>9</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>11</v>
+      </c>
+      <c r="G38">
+        <v>15</v>
+      </c>
+      <c r="H38">
+        <v>251</v>
+      </c>
+      <c r="J38">
+        <v>5</v>
+      </c>
+      <c r="K38">
+        <v>99</v>
+      </c>
+      <c r="L38">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>11</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="E39">
+        <v>39</v>
+      </c>
+      <c r="G39">
+        <v>15</v>
+      </c>
+      <c r="H39">
+        <v>251</v>
+      </c>
+      <c r="J39">
+        <v>7</v>
+      </c>
+      <c r="K39">
+        <v>164</v>
+      </c>
+      <c r="L39">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>12</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+      <c r="E40">
+        <v>27</v>
+      </c>
+      <c r="G40">
+        <v>18</v>
+      </c>
+      <c r="H40">
+        <v>251</v>
+      </c>
+      <c r="J40">
+        <v>9</v>
+      </c>
+      <c r="K40">
+        <v>183</v>
+      </c>
+      <c r="L40">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>12</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <v>12</v>
+      </c>
+      <c r="G41">
+        <v>20</v>
+      </c>
+      <c r="H41">
+        <v>251</v>
+      </c>
+      <c r="J41">
+        <v>7</v>
+      </c>
+      <c r="K41">
+        <v>115</v>
+      </c>
+      <c r="L41">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>34</v>
+      </c>
+      <c r="C42">
+        <v>16</v>
+      </c>
+      <c r="D42">
+        <v>16</v>
+      </c>
+      <c r="E42">
+        <v>34</v>
+      </c>
+      <c r="G42">
+        <v>47</v>
+      </c>
+      <c r="H42">
+        <v>251</v>
+      </c>
+      <c r="J42">
+        <v>7</v>
+      </c>
+      <c r="K42">
+        <v>164</v>
+      </c>
+      <c r="L42">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
+        <v>20</v>
+      </c>
+      <c r="C43">
+        <v>8</v>
+      </c>
+      <c r="D43">
+        <v>8</v>
+      </c>
+      <c r="E43">
+        <v>42</v>
+      </c>
+      <c r="G43">
+        <v>29</v>
+      </c>
+      <c r="H43">
+        <v>251</v>
+      </c>
+      <c r="J43">
+        <v>7</v>
+      </c>
+      <c r="K43">
+        <v>164</v>
+      </c>
+      <c r="L43">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <v>39</v>
+      </c>
+      <c r="G44">
+        <v>14</v>
+      </c>
+      <c r="H44">
+        <v>251</v>
+      </c>
+      <c r="J44">
+        <v>7</v>
+      </c>
+      <c r="K44">
+        <v>164</v>
+      </c>
+      <c r="L44">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>26</v>
+      </c>
+      <c r="G45">
+        <v>14</v>
+      </c>
+      <c r="H45">
+        <v>251</v>
+      </c>
+      <c r="J45">
+        <v>9</v>
+      </c>
+      <c r="K45">
+        <v>183</v>
+      </c>
+      <c r="L45">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
+        <v>11</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <v>5</v>
+      </c>
+      <c r="E46">
+        <v>28</v>
+      </c>
+      <c r="G46">
+        <v>15</v>
+      </c>
+      <c r="H46">
+        <v>251</v>
+      </c>
+      <c r="J46">
+        <v>9</v>
+      </c>
+      <c r="K46">
+        <v>183</v>
+      </c>
+      <c r="L46">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>9</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>33</v>
+      </c>
+      <c r="G47">
+        <v>14</v>
+      </c>
+      <c r="H47">
+        <v>251</v>
+      </c>
+      <c r="J47">
+        <v>7</v>
+      </c>
+      <c r="K47">
+        <v>164</v>
+      </c>
+      <c r="L47">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
+        <v>24</v>
+      </c>
+      <c r="C48">
+        <v>15</v>
+      </c>
+      <c r="D48">
+        <v>15</v>
+      </c>
+      <c r="E48">
+        <v>24</v>
+      </c>
+      <c r="G48">
+        <v>33</v>
+      </c>
+      <c r="H48">
+        <v>251</v>
+      </c>
+      <c r="J48">
+        <v>9</v>
+      </c>
+      <c r="K48">
+        <v>183</v>
+      </c>
+      <c r="L48">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
+        <v>11</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="E49">
+        <v>33</v>
+      </c>
+      <c r="G49">
+        <v>18</v>
+      </c>
+      <c r="H49">
+        <v>251</v>
+      </c>
+      <c r="J49">
+        <v>9</v>
+      </c>
+      <c r="K49">
+        <v>183</v>
+      </c>
+      <c r="L49">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50">
+        <v>10</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>10</v>
+      </c>
+      <c r="G50">
+        <v>16</v>
+      </c>
+      <c r="H50">
+        <v>251</v>
+      </c>
+      <c r="J50">
+        <v>5</v>
+      </c>
+      <c r="K50">
+        <v>96</v>
+      </c>
+      <c r="L50">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51">
+        <v>11</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="D51">
+        <v>4</v>
+      </c>
+      <c r="E51">
+        <v>23</v>
+      </c>
+      <c r="G51">
+        <v>18</v>
+      </c>
+      <c r="H51">
+        <v>251</v>
+      </c>
+      <c r="J51">
+        <v>9</v>
+      </c>
+      <c r="K51">
+        <v>183</v>
+      </c>
+      <c r="L51">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52">
+        <v>34</v>
+      </c>
+      <c r="C52">
+        <v>16</v>
+      </c>
+      <c r="D52">
+        <v>16</v>
+      </c>
+      <c r="E52">
+        <v>44</v>
+      </c>
+      <c r="G52">
+        <v>47</v>
+      </c>
+      <c r="H52">
+        <v>251</v>
+      </c>
+      <c r="J52">
+        <v>7</v>
+      </c>
+      <c r="K52">
+        <v>164</v>
+      </c>
+      <c r="L52">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53">
+        <v>10</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>10</v>
+      </c>
+      <c r="G53">
+        <v>17</v>
+      </c>
+      <c r="H53">
+        <v>251</v>
+      </c>
+      <c r="J53">
+        <v>5</v>
+      </c>
+      <c r="K53">
+        <v>96</v>
+      </c>
+      <c r="L53">
+        <v>251</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <v>106</v>
+      </c>
+      <c r="H2">
+        <v>251</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>14</v>
+      </c>
+      <c r="L2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>27</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>251</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>14</v>
+      </c>
+      <c r="L3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>86</v>
+      </c>
+      <c r="H4">
+        <v>251</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>51</v>
+      </c>
+      <c r="L4">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>44</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>251</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>31</v>
+      </c>
+      <c r="L5">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>35</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>251</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>31</v>
+      </c>
+      <c r="L6">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>29</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>251</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>31</v>
+      </c>
+      <c r="L7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>32</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>251</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>31</v>
+      </c>
+      <c r="L8">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>30</v>
+      </c>
+      <c r="G9">
+        <v>15</v>
+      </c>
+      <c r="H9">
+        <v>251</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>31</v>
+      </c>
+      <c r="L9">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>42</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>251</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>31</v>
+      </c>
+      <c r="L10">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>37</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>251</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>31</v>
+      </c>
+      <c r="L11">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>49</v>
+      </c>
+      <c r="G12">
+        <v>150</v>
+      </c>
+      <c r="H12">
+        <v>251</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>14</v>
+      </c>
+      <c r="L12">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>34</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>251</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>31</v>
+      </c>
+      <c r="L13">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>34</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>251</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>31</v>
+      </c>
+      <c r="L14">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>25</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>251</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>31</v>
+      </c>
+      <c r="L15">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>43</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>251</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>31</v>
+      </c>
+      <c r="L16">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>45</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>251</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>31</v>
+      </c>
+      <c r="L17">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>35</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>251</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>31</v>
+      </c>
+      <c r="L18">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>29</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>251</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>31</v>
+      </c>
+      <c r="L19">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>9</v>
+      </c>
+      <c r="G20">
+        <v>46</v>
+      </c>
+      <c r="H20">
+        <v>251</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>5</v>
+      </c>
+      <c r="L20">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>-1</v>
+      </c>
+      <c r="C21">
+        <v>-1</v>
+      </c>
+      <c r="D21">
+        <v>-1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>104</v>
+      </c>
+      <c r="H21">
+        <v>251</v>
+      </c>
+      <c r="J21">
+        <v>11</v>
+      </c>
+      <c r="K21">
+        <v>251</v>
+      </c>
+      <c r="L21">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>9</v>
+      </c>
+      <c r="D22">
+        <v>9</v>
+      </c>
+      <c r="E22">
+        <v>25</v>
+      </c>
+      <c r="G22">
+        <v>59</v>
+      </c>
+      <c r="H22">
+        <v>251</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>31</v>
+      </c>
+      <c r="L22">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>17</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>36</v>
+      </c>
+      <c r="G23">
+        <v>158</v>
+      </c>
+      <c r="H23">
+        <v>251</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <v>16</v>
+      </c>
+      <c r="L23">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>39</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <v>251</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>31</v>
+      </c>
+      <c r="L24">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>8</v>
+      </c>
+      <c r="G25">
+        <v>170</v>
+      </c>
+      <c r="H25">
+        <v>251</v>
+      </c>
+      <c r="J25">
+        <v>4</v>
+      </c>
+      <c r="K25">
+        <v>84</v>
+      </c>
+      <c r="L25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>45</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <v>251</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>31</v>
+      </c>
+      <c r="L26">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>12</v>
+      </c>
+      <c r="G27">
+        <v>7</v>
+      </c>
+      <c r="H27">
+        <v>251</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>11</v>
+      </c>
+      <c r="L27">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>11</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>251</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>5</v>
+      </c>
+      <c r="L28">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>22</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+      <c r="H29">
+        <v>251</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>31</v>
+      </c>
+      <c r="L29">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>17</v>
+      </c>
+      <c r="C30">
+        <v>15</v>
+      </c>
+      <c r="D30">
+        <v>16</v>
+      </c>
+      <c r="E30">
+        <v>43</v>
+      </c>
+      <c r="G30">
+        <v>65</v>
+      </c>
+      <c r="H30">
+        <v>251</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>31</v>
+      </c>
+      <c r="L30">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>34</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <v>251</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>31</v>
+      </c>
+      <c r="L31">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>35</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <v>251</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>31</v>
+      </c>
+      <c r="L32">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>10</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+      <c r="E33">
+        <v>42</v>
+      </c>
+      <c r="G33">
+        <v>48</v>
+      </c>
+      <c r="H33">
+        <v>251</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>31</v>
+      </c>
+      <c r="L33">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <v>34</v>
+      </c>
+      <c r="G34">
+        <v>50</v>
+      </c>
+      <c r="H34">
+        <v>251</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>31</v>
+      </c>
+      <c r="L34">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>7</v>
+      </c>
+      <c r="C35">
+        <v>7</v>
+      </c>
+      <c r="D35">
+        <v>7</v>
+      </c>
+      <c r="E35">
+        <v>17</v>
+      </c>
+      <c r="G35">
+        <v>87</v>
+      </c>
+      <c r="H35">
+        <v>251</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>31</v>
+      </c>
+      <c r="L35">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <v>40</v>
+      </c>
+      <c r="G36">
+        <v>4</v>
+      </c>
+      <c r="H36">
+        <v>251</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>31</v>
+      </c>
+      <c r="L36">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>43</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>251</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>31</v>
+      </c>
+      <c r="L37">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>11</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>251</v>
+      </c>
+      <c r="J38">
+        <v>2</v>
+      </c>
+      <c r="K38">
+        <v>51</v>
+      </c>
+      <c r="L38">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <v>39</v>
+      </c>
+      <c r="G39">
+        <v>4</v>
+      </c>
+      <c r="H39">
+        <v>251</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>31</v>
+      </c>
+      <c r="L39">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>27</v>
+      </c>
+      <c r="G40">
+        <v>4</v>
+      </c>
+      <c r="H40">
+        <v>251</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>31</v>
+      </c>
+      <c r="L40">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>12</v>
+      </c>
+      <c r="G41">
+        <v>39</v>
+      </c>
+      <c r="H41">
+        <v>251</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>5</v>
+      </c>
+      <c r="L41">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>7</v>
+      </c>
+      <c r="C42">
+        <v>7</v>
+      </c>
+      <c r="D42">
+        <v>7</v>
+      </c>
+      <c r="E42">
+        <v>34</v>
+      </c>
+      <c r="G42">
+        <v>66</v>
+      </c>
+      <c r="H42">
+        <v>251</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>31</v>
+      </c>
+      <c r="L42">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>42</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <v>251</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>31</v>
+      </c>
+      <c r="L43">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <v>39</v>
+      </c>
+      <c r="G44">
+        <v>3</v>
+      </c>
+      <c r="H44">
+        <v>251</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>31</v>
+      </c>
+      <c r="L44">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>26</v>
+      </c>
+      <c r="G45">
+        <v>3</v>
+      </c>
+      <c r="H45">
+        <v>251</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>31</v>
+      </c>
+      <c r="L45">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="E46">
+        <v>28</v>
+      </c>
+      <c r="G46">
+        <v>4</v>
+      </c>
+      <c r="H46">
+        <v>251</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>31</v>
+      </c>
+      <c r="L46">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>33</v>
+      </c>
+      <c r="G47">
+        <v>3</v>
+      </c>
+      <c r="H47">
+        <v>251</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>31</v>
+      </c>
+      <c r="L47">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>24</v>
+      </c>
+      <c r="G48">
+        <v>24</v>
+      </c>
+      <c r="H48">
+        <v>251</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>31</v>
+      </c>
+      <c r="L48">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
+        <v>6</v>
+      </c>
+      <c r="C49">
+        <v>6</v>
+      </c>
+      <c r="D49">
+        <v>6</v>
+      </c>
+      <c r="E49">
+        <v>33</v>
+      </c>
+      <c r="G49">
+        <v>6</v>
+      </c>
+      <c r="H49">
+        <v>251</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>31</v>
+      </c>
+      <c r="L49">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>10</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>251</v>
+      </c>
+      <c r="J50">
+        <v>3</v>
+      </c>
+      <c r="K50">
+        <v>79</v>
+      </c>
+      <c r="L50">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <v>23</v>
+      </c>
+      <c r="G51">
+        <v>3</v>
+      </c>
+      <c r="H51">
+        <v>251</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>31</v>
+      </c>
+      <c r="L51">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52">
+        <v>10</v>
+      </c>
+      <c r="C52">
+        <v>10</v>
+      </c>
+      <c r="D52">
+        <v>10</v>
+      </c>
+      <c r="E52">
+        <v>44</v>
+      </c>
+      <c r="G52">
+        <v>10</v>
+      </c>
+      <c r="H52">
+        <v>251</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>31</v>
+      </c>
+      <c r="L52">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>10</v>
+      </c>
+      <c r="G53">
+        <v>39</v>
+      </c>
+      <c r="H53">
+        <v>251</v>
+      </c>
+      <c r="J53">
+        <v>3</v>
+      </c>
+      <c r="K53">
+        <v>79</v>
+      </c>
+      <c r="L53">
+        <v>251</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L53"/>
@@ -17678,7 +21098,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -17710,7 +21130,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -17742,7 +21162,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -17774,13 +21194,13 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>44</v>
@@ -17806,13 +21226,13 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>35</v>
@@ -17838,13 +21258,13 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>29</v>
@@ -17870,13 +21290,13 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>32</v>
@@ -17902,13 +21322,13 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E9">
         <v>30</v>
@@ -17934,13 +21354,13 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <v>42</v>
@@ -17966,13 +21386,13 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>37</v>
@@ -17998,13 +21418,13 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>49</v>
@@ -18030,13 +21450,13 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E13">
         <v>34</v>
@@ -18062,13 +21482,13 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E14">
         <v>34</v>
@@ -18094,13 +21514,13 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>25</v>
@@ -18126,13 +21546,13 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>43</v>
@@ -18158,13 +21578,13 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>45</v>
@@ -18190,13 +21610,13 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C18">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E18">
         <v>35</v>
@@ -18222,13 +21642,13 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E19">
         <v>29</v>
@@ -18254,7 +21674,7 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -18318,13 +21738,13 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C22">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D22">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E22">
         <v>25</v>
@@ -18350,7 +21770,7 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -18382,13 +21802,13 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C24">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D24">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E24">
         <v>39</v>
@@ -18414,7 +21834,7 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -18446,13 +21866,13 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <v>45</v>
@@ -18478,7 +21898,7 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -18510,13 +21930,13 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <v>11</v>
@@ -18542,7 +21962,7 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -18574,13 +21994,13 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C30">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D30">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E30">
         <v>43</v>
@@ -18606,13 +22026,13 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C31">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D31">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E31">
         <v>34</v>
@@ -18638,13 +22058,13 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C32">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D32">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E32">
         <v>35</v>
@@ -18670,13 +22090,13 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C33">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D33">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E33">
         <v>42</v>
@@ -18702,13 +22122,13 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="C34">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D34">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E34">
         <v>34</v>
@@ -18734,13 +22154,13 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C35">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D35">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E35">
         <v>17</v>
@@ -18766,13 +22186,13 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E36">
         <v>40</v>
@@ -18798,13 +22218,13 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E37">
         <v>43</v>
@@ -18830,13 +22250,13 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38">
         <v>11</v>
@@ -18862,13 +22282,13 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E39">
         <v>39</v>
@@ -18894,13 +22314,13 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E40">
         <v>27</v>
@@ -18926,13 +22346,13 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E41">
         <v>12</v>
@@ -18958,13 +22378,13 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C42">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D42">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E42">
         <v>34</v>
@@ -18990,13 +22410,13 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C43">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D43">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E43">
         <v>42</v>
@@ -19022,13 +22442,13 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C44">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D44">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E44">
         <v>39</v>
@@ -19054,13 +22474,13 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E45">
         <v>26</v>
@@ -19086,13 +22506,13 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E46">
         <v>28</v>
@@ -19118,7 +22538,7 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -19150,13 +22570,13 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="C48">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D48">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E48">
         <v>24</v>
@@ -19182,13 +22602,13 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E49">
         <v>33</v>
@@ -19214,13 +22634,13 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E50">
         <v>10</v>
@@ -19246,13 +22666,13 @@
         <v>59</v>
       </c>
       <c r="B51">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E51">
         <v>23</v>
@@ -19278,13 +22698,13 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C52">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D52">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E52">
         <v>44</v>
@@ -19310,7 +22730,7 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C53">
         <v>1</v>
